--- a/result/生词本导入模版_7.xlsx
+++ b/result/生词本导入模版_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sanctify</t>
+          <t>salutary</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vt. 使神圣，敬为神： to make holy</t>
+          <t>adj. 有益健康的： beneficial, promoting health</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
+          <t>a salutary warning  善意的警告</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sanctimonious</t>
+          <t>salutation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
+          <t>n. 致敬，打招呼（表示欢迎和礼貌）： a polite expression of greeting or goodwill
+n. 表扬： a formal expression praise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
+          <t>The veteran stepped forward, raising his hand in salutation.   老兵向前一步，举起手致敬。
+The speaker introduced the evening's honored guest with a lavish salutation.   主持人用大量表扬的话介绍了今晚的嘉宾。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,176 +504,176 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>salvage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>salve</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>v. 减轻，缓解： quiet, assuage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sanctify</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vt. 使神圣，敬为神： to make holy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sanctimonious</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>sanction</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>v. 批准，同意，认可： to make valid or binding usually by a formal procedure (as ratification)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>The President sanctioned covert operations.   总统批准了秘密行动
 The administration will sanctionalmost any field trip with educational value.   基本上任何有教育意义的实地考察都可以得到批准。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>sanctuary</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 避难所： a place of refuge and protection</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>In earlier times a criminal could use a church as a sanctuary.   在早期，犯罪分子可以将教堂当作避难所。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sand</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vt. 磨光： to make smooth by friction</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Be sure to sand before you paint the shelf.  在上漆之前一定要先磨光。</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sanguine</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 乐观的，确信的： having or showing a mind free from doubt
 adj. 面色红润的： having a healthy reddish skin tone</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>I'm reasonably sanguine about the adoption of the latest proposal.   我非常看好最新的那项提议获得通过。
 a baby with a sanguine complexion is more likely to leave the hospital early than a sickly-looking one  面色红润的新生儿比病怏怏的能更早出院</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sanitary</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>adj. 健康的，清洁的： of or relating to health</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sanitary measures  保健的手段</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sap</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sapient</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sarcasm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>a voice full of sarcasm  充满轻蔑的言论</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -681,17 +683,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sartorial</t>
+          <t>sanitary</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
+          <t>adj. 健康的，清洁的： of or relating to health</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>poor sartorial taste  很烂的穿衣品位</t>
+          <t>sanitary measures  保健的手段</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -703,17 +705,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sate</t>
+          <t>sap</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
+          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
+          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -725,17 +727,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>satiate</t>
+          <t>sapient</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
+          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
+          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -747,17 +749,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>satire</t>
+          <t>sarcasm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
+          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
+          <t>a voice full of sarcasm  充满轻蔑的言论</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -769,17 +771,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>satirize</t>
+          <t>sartorial</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
+          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
+          <t>poor sartorial taste  很烂的穿衣品位</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -791,17 +793,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>saturate</t>
+          <t>sate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
+          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Saturate the sponge with water.   将海绵浸透</t>
+          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -813,173 +815,177 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>satiate</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>satire</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>satirize</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>saturate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Saturate the sponge with water.   将海绵浸透</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>saturnine</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>adj. 忧郁的，阴沉的： causing or marked by an atmosphere lacking in cheer
 adj. 讥讽的： having a sardonic aspect</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>The men awaiting interrogation by the police shared a saturnine silence.   等待警察审问的人们脸色阴沉，沉默不语。
 a saturnine smile  讥讽的笑容</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>saunter</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>vi. 闲逛，漫步： to travel by foot for exercise or pleasure</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>sauntered slowly down the street  在街上闲逛</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>savant</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>n. 博学之士，学者： a person of learning</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>a savant in the field of medical ethics  医学伦理方面的专家</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>savory</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. 口感好的，味道好的： appetizing to the taste or smell
 adj. 令人愉悦的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>cedar is one of the most savory of all woods  雪松是所有树木中味道最好闻的
 having to fire someone was not a task that the manager found at all savory  经理发现不得不开除某人是件非常不讨好的事</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>savvy</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>scads</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>n. 许多，大量： a large number or quantity</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>scant</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>scathing</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>a scathing review of the book  尖刻的书评</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -989,19 +995,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>schism</t>
+          <t>savvy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 不一致： a lack of agreement or harmony</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>a schism between political parties  党派间的冲突</t>
-        </is>
-      </c>
+          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1011,467 +1013,467 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>scads</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 许多，大量： a large number or quantity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>scant</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>scathing</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>a scathing review of the book  尖刻的书评</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>schism</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n. 不一致： a lack of agreement or harmony</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>a schism between political parties  党派间的冲突</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>scintillate</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vi. 闪耀： to emit sparks</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>diamond ring scintillated in the sunlight  钻戒在阳光下闪闪发光
 a scintillating conversation</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>scion</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>n. 子孙： descendant, child</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>scion of a railroad empire  铁路大王的后代</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>scission</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>n. 切断，分离，分裂： a division or split in a group or union: schism</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>The scission of the labor union will compromise the workers' bargaining power  工 会 内 部的 分 裂会 削弱工人讨价的力量</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>scoff</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vt. 嘲笑： to treat or address with derision: mock
 v. 狼吞虎咽： to swallow or eat greedily</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>scoffed at the idea  对这个提议不屑一顾
 scoffed dinner before running off to the basketball game  风卷残云般把晚饭消灭了，就直奔向篮球场</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>scorch</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 炙烤，烘干： to burn on the surface; to make dry</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>scorching sun  火辣辣的太阳</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>scorn</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>vt. 轻蔑，鄙视，不屑： reject or dismiss as contemptible or unworthy</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>They were scorned as fanatics.   他们被指责为狂热分子。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>scotch</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>vt. 停止： to put an abrupt end to</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>The prime minister scotched the rumors of her illness.   首相出面澄清了关于她死亡的谣言。</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>scour</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>vt. 用力擦洗： to clean, polish, or wash by scrubbing vigorously
 vt. 搜查： to look through (as a place) carefully or thoroughly in an effort to find or discoversomething</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>scowl</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>vi. 皱眉（表现出不高兴）： to contract the brow in an expression of displeasure</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>scowled down at the misbehaving child  对淘气的孩子皱起了眉</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>scrappy</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>adj. 好斗的，好吵架的： having an aggressive and determined spirit，quarrelsome</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>She was a scrappy girl despite—or, perhaps, because of—her small size.  这个妹子好打斗，但是身材娇小，不过这很可能是原因</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>scrap</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>n. 废料，废物： discarded or useless material
 vt. 抛弃： to get rid of as useless or unwanted
 v. 终止，放弃原计划： to put an end to (something planned or previously agreed to)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>The rest of this stuff is just scrap, so sweep it up and throw it away.   剩下的这堆东西都是没用的，把它们打扫一下就扔了吧。
 We've decided to scrap the first car.   我们决定丢弃第一辆车。
 We scrapped our plans to go to Paris, and set out the next day for Prague.  我们取消了去巴黎的计划，第二天启程奔赴布拉格。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>scrawl</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>vt. 乱涂，潦草地写： to write or draw awkwardly, hastily, or carelessly</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>scrawled a quick note, stuck it in their mailbox, and hurried off  草草写了张便条，塞进他们的信箱然后匆匆跑了</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>scribble</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>vt. 潦草地书写，乱写： to cover with scribbles, doodles, or meaningless marks</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Students scribbled furiously as the teacher lectured.  老师一边讲，学生们一边狂抄笔记。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>scrupulous</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 正直的： guided by or in accordance with one's sense of right and wrong; principled
 adj. 一丝不苟的： taking, showing, or involving great care and effort</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Less scrupulous companies find ways to evade the law.  道德程度略低的公司钻法律的空子。
 The task requires scrupulous attention to detail.  这项任务需要对细节一丝不苟。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>scrutable</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj. 可以理解的： capable of being understood through study and observation; comprehensible.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Her machinations and motives are all too scrutable to us who know her.   她的阴谋和动机对于了解她的我们来说非常昭然若揭</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>scrutinize</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>vt. 仔细检查： to examine or observe with great care</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>I closely scrutinized my opponent's every move.  我仔细注意着对手的每一个举动。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>scuff</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>vt. 磨损： to become scratched, chipped, or roughened by wear
 v. 脚步拖沓： to move heavily or clumsily</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>a countertop that won't scuff  一块不易磨损的厨房台面
 The miners scuffed past in heavy boots.   矿工们脚着厚重的靴子，步履蹒跚。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>scurrilous</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>scurvy</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>seamy</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>adj. 肮脏的，堕落的： sordid; base</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>the seamy side of urban life  城市生活的肮脏面</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>secluded</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>secluded monks  隐居的僧人</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1481,106 +1483,106 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>scurrilous</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>scurvy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seamy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>adj. 肮脏的，堕落的： sordid; base</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>the seamy side of urban life  城市生活的肮脏面</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>secluded</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>secluded monks  隐居的僧人</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>secrete</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>vt. 隐藏： to conceal in a hiding place; cache
 vt. 分泌： to generate and separate (a substance) from cells or bodily fluids</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>The police found the weapon secreted under the driver's seat of the getaway car.   警方在逃逸车辆驾驶座下发现了隐藏的武器。</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>sedate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>sedentary</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>adj. 固定不动的： not migratory: settled</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>a sedentary lifestyle  很宅的生活方式</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>seduce</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sedulous</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>a sedulous student  一个勤奋地学生</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1592,17 +1594,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>seemly</t>
+          <t>sedate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
+          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
+          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1614,17 +1616,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>segment</t>
+          <t>sedentary</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt./n. 分割，部分： to separate into segments</t>
+          <t>adj. 固定不动的： not migratory: settled</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
+          <t>a sedentary lifestyle  很宅的生活方式</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1636,128 +1638,132 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>seduce</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sedulous</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>a sedulous student  一个勤奋地学生</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>seemly</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>segment</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>vt./n. 分割，部分： to separate into segments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>seminal</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 有发展性的： containing or contributing the seeds of later development
 adj. 创新的： of, relating to, or having the power to originate; creative</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>a seminal novel  新颖的小说</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>sensation</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 感觉，知觉： a perception associated with stimulation of a sense organ or with a specific bodycondition
 n. 轰动事件： a state of intense public interest and excitement</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>We felt just the smallest sensation of warmth when we leaned against the radiator.   当我们靠着取暖器的时候，我们也仅仅感到了一点点的温度。
 the rookie hitting sensation of the American League  这个菜鸟的表现轰动了整个全美大联盟</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>sensitive</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>sentinel</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>sepulchral</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>septic</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1767,15 +1773,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sequela</t>
+          <t>sensitive</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n. 结果： a secondary consequence or result</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1785,177 +1795,169 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>sentinel</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sepulchral</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>septic</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sequela</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 结果： a secondary consequence or result</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>sequester</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>vt. 使隔绝，分离： to set apart: segregate
 vt. 使隐退： to cause to withdraw into seclusion</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>sequester a jury  让陪审团分开讨论
 She was sequestered in her room.   她深居简出。</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>sere</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>adj. 干枯的，凋萎的： being dried and withered</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>a sere region that can't support agriculture  一片贫瘠不能发展农业的地区</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>serendipity</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 意外发现珍奇(或称心)事物的本领： the faculty of making fortunate discoveries by accident</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>They found each other by pure serendipity.  他俩的相识属于缘分天注定。</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>serene</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj. 安静的： free from disturbing noise or uproar
 adj. 稳重的，镇静的： unaffected by disturbance; calm and unruffled</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a serene vacation spot  一处宁谧的度假胜地
 a serene man who was everyone's source of support  一个沉着镇静的男人，他是所有人的精神支柱</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>sermon</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>serpentine</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 弯曲的： winding or turning one way and another</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>serrate</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>adj. 锯齿状的： notched or toothed on the edge</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>a serrate leaf  锯齿状的叶片</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>serried</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj. 密集的： having little space between items or parts</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1965,17 +1967,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>servile</t>
+          <t>sermon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
+          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
+          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1987,19 +1989,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>severe</t>
+          <t>serpentine</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 严厉的，要求严格的： given to exacting standards of discipline and self-restraint
-adj. 难以承受的，艰难的： difficult to endure</t>
+          <t>adj. 弯曲的： winding or turning one way and another</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>a severe, uncompromising teacher  一位严厉、不妥协的老师
-a severe winter that was among the coldest on record  有记录的最寒冷的冬天之一</t>
+          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2011,180 +2011,172 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>serrate</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adj. 锯齿状的： notched or toothed on the edge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>a serrate leaf  锯齿状的叶片</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>serried</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 密集的： having little space between items or parts</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>servile</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>severe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>shackle</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>vt. 束缚： to deprive of freedom especially of action by means of restrictions or handicaps
 v. 限制，阻碍： to create difficulty for the work or activity of</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unwilling to shackle the dogs to the wall of the house  不愿意把狗拴在墙边
 shackled by poverty and ignorance  被贫穷和无知所阻碍</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>shadow</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>vt. 偷偷尾随： to follow especially secretly: trail</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>shadowing the suspect to see what he was up to  尾随嫌犯行踪
 He had only a shadowy idea of what they wanted him to do.   他对要做的事只有一个模糊的想法。</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>shallow</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 浅显的，浅薄的： having or showing a lack of depth of understanding or character</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>shallow generalizations  一个浅显的概览</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>sham</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>n. 欺瞒： the quality of deceitfulness; empty pretense
 v. 掩饰，假装： to present a false appearance of
 adj. 虚假的： not genuine; fake</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>condemned the rigged election as a total sham  指责这次有作弊的选举是彻头彻尾的骗局
 shammed a most unconvincing limp just to get sympathy  非常拙劣地假装自己腿脚不便，以博得同情
 street vendors selling sham designer handbags to gullible tourists  街头小贩向易上当的游客兜售山寨的设计师手包</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>shiftless</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>shipshape</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>shirk</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>shirk one’s duty  逃避责任</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>shoal</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>adj. 浅的： having little depth ; shallow.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>shoal waters of the bay  海湾附近的浅水区</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2194,17 +2186,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>shopworn</t>
+          <t>shiftless</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
+          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
+          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2216,17 +2208,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>shipshape</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 少量： a small amount; a particle</t>
+          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
+          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2238,183 +2230,183 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>shirk</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>shirk one’s duty  逃避责任</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>shoal</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adj. 浅的： having little depth ; shallow.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>shoal waters of the bay  海湾附近的浅水区</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>shopworn</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>shred</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>n. 少量： a small amount; a particle</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>shrewd</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 精明的，机敏的： having or showing a practical cleverness or judgment
 adj. 刺骨的，强烈的： causing intense discomfort to one's skin</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>He's shrewd about his investments.   他是个精明的投资人。
 She pulled her coat tighter against the shrewd breeze whipping down the alley.  巷子里挂着刺骨的风，她拉紧了大衣。</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>shrink</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>v. 在数量或价值方面变低；减小： to become reduced in amount or value; dwindle:
 v. 本能性地退却（如因遇到使人惊恐的某物）；退缩： to draw back instinctively, as from somethingalarming; recoil
 v. 表示出不情愿；犹豫： to show reluctance; hesitate:</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>His savings quickly shrank.   他的存款急剧减少。
 shrinking back from the approaching flames  对着燃烧的火焰望而却步
 shrink from making such a sacrifice  对做出这样的牺牲犹豫不决</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>shroud</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 隐蔽物，可起隐藏、保护或屏护作用的某物： something that conceals, protects, or screens:
 v. 将…从视线中隔离，遮蔽： to shut off from sight; screen</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>under a shroud of fog  在迷雾的掩护下
 shrouded the fact that the child had been adopted  将孩子是领养的这个事实隐藏起来</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>shrug</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>v. 轻视，忽略： to dismiss as of little importance
 v. 脱下（衣物等）： to rid oneself of (a garment)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>The administration was willing to shrug off the problem.   当局有意忽略这个问题。
 She shrugged off her coat and hung it up neatly.   她脱下了她的大衣，将其整齐地挂好。</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>shun</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>sidestep</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>simpleton</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2424,109 +2416,109 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>shun</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sidestep</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>simpleton</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>simulate</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>v. 假装，模仿： to have or take on the appearance, form, or sound of; imitate
 v. 模拟： to create a representation or model of (a physical system or particular situation)</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>cosmetics that simulate a suntan  用来模仿晒黑效果的化妆品
 carrying out an experiment to simulate weightlessness  进行了模拟失重状态的实验</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>sincere</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>sinecure</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>sinew</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>n. 活力，力量： vigorous strength; muscular power</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2536,286 +2528,397 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sincere</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sinecure</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sinew</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>n. 活力，力量： vigorous strength; muscular power</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>singe</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>vt. 轻微烧焦： to burn superficially or lightly</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The iron is too hot, and you'll singe the nightdress.   熨斗太烫了，你会把睡衣烫坏的。
 The marshmallowsgot a bit singed over the campfire, but we like them that way.  棉花糖因为营火而有些许烧焦，但我们还是很喜欢它的味道。</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>sinuous</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 蜿蜒的，迂回的： marked by a long series of irregular curves; not direct</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>The river flowed in a sinuous path through the lush valley.   蜿 蜒 曲 折 的 河 流 流 过 茂 密 的 山 谷 。
 Thirty-year-old men are novel, rich in content and sinuous in plots.   三十岁的男人是小说，内容丰富，情节曲折。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sip</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>vt. （尤指小口地）喝： to swallow in liquid form, especially in small quantities</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>slowly sipping the hot soup  慢慢地喝着热汤
+She sipped her coffee while she watched the sun rise.   她一边看着日出，一边喝着她的咖啡。</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>skeleton</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 骨架，框架： something forming a structural framework</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Only the charred skeleton of the house remained after the fire.   大火过后整个房子只剩下被烧焦的骨架了。
 We saw a skeleton of the report before it was published.   在报告发表之前，我们看到了他的整体框架。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>skeptic</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>n. 怀疑者： one who instinctively or habitually doubts, questions, or disagrees with assertions orgenerally accepted conclusions</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>You can either be a skeptic or not, but I believe it anyway.   至于你信不信，我反正信了。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>skimp</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 缺乏的，不足的： less plentiful than what is normal, necessary, or desirable
 vi. 节省花费，吝啬： to give insufficient or barely sufficient attention or effort to or funds for</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>The dieter complained about skimp meals that were served at the fat farm.  这个节食者抱怨说减肥疗养地的伙食少得可怜。
 We must skimp and save if we are going to afford a vacation this summer.  要是我们这个夏天要出去旅行，那么就得开始节省出一些钱了。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>skirmish</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>n. 小冲突，争论： a minor or preliminary conflict or dispute</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>They had a skirmish over the rules before the debate began.  在辩论开始之前他们就规则而吵了起来。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>skirt</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>n. 界限，边界： the line or relatively narrow space that marks the outer limit of something
 vt. 绕行，避开： to go around or keep away from in order to avoid danger or discovery</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>an old shack on the skirts of the town  城镇边界上的一座老房子</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>slack</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 松弛的： not tightly fastened, tied, or stretched
 adj. 疏忽的，大意的： failing to give proper care and attention</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>The rope is too slack.   绳子太松了。
 This building contractor is known mainly for his firm's slack workmanship and slipshod construction.   这个建筑承包商因其手下公司不负责任的粗糙做工和马虎建造的建筑物而闻名。</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>slake</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>vt. 使满足： to satisfy (a craving); quench</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Mountain climbing has largely slaked my desire for adventure.   登山很大程度上满足了我对探险的渴望。</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>slant</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. （看待问题、思考的）角度，看法： a way of looking at or thinking about something
 adj. 倾斜的： running in a slanting direction
 vt. 歪曲（事实等）： to change so much as to create a wrong impression or alter the meaning of</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>an interesting slant on the problem of underage drinking  在青少年饮酒这个问题上一个有趣的视角
 The computer keyboard has a slightly slant surface so that typing is more comfortable for the wrists.   电脑键盘有一个微小的倾斜角，因此打字不会使手腕感到不适。
 Reporters slanted the truth in order to push a political agenda.   为了推动政治进程，记者们歪曲了事实。</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>slate</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>vt. 列入名单，计划，安排： to put (someone or something) on a list</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>You've been slated for a three o'clock interview.  你的面试被安排在三点。</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>slew</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>n. 大量，许多： a large amount or number</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>donate a slew of books to the university library  向大学图书馆捐赠了大量的书籍</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>slight</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 不重要的： deficient in weight, importance
 adj. 轻微的： small in degree
@@ -2823,7 +2926,7 @@
 vt. 忽略，疏忽： to fail to give proper attention to</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a slight comedy that did nothing to further her career  一个并没有帮助她事业发展的小喜剧
 only a slight chance of success  只有很小的成功概率
@@ -2832,445 +2935,459 @@
 She slighted several major authors in her survey of 20th-century fiction.   她在调查 20 世纪幻想文学时中忽略了几个重要的作家。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>sling</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>vi. 投掷： to send through the air especially with a quick forward motion of the arm</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>slinging stones at the checkpoint  朝着检查站扔石头</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>slippery</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 光滑的： causing or tending to cause something to slide or fall
-adj. 隐秘的： given to acting in secret and to concealing one's intentions本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-adj. 意义不明确的： not precise or fixed in meaning, elusive or tricky</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>The road is slippery after rain, so drive cautiously.   雨后路滑，谨慎驾驶。
-a bar where a lot of slippery characters were known to hang out  一个有许多秘密人物出没的酒吧
-a slippery concept that we had trouble understanding  一个难以理解的模糊概念</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+adj. 隐秘的： given to acting in secret and to concealing one's intentions</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The road is slippery after rain, so drive cautiously.   雨后路滑，谨慎驾驶。</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>slipshod</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>adj. 粗心的，随意的： marked by carelessness or indifference to exactness, precision, andaccuracy</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>a slipshod piece of research  一项随意的研究
 The hotel had always been run in a slipshod way.   酒 店 总是在以一种随意的状态运营。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>sloppy</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person
 adj. 混乱的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>a sloppy child who always seems to have spilled something on his clothes  一个外表邋遢的小孩子，他的衣服似乎总被沾上了什么东西
 dumped the papers in a sloppy pile on the desk  把纸张随意地叠放在书桌上</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>sloth</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 怠惰，懒惰： disinclination to action or labor: indolence</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Sloth is the mother of poverty.   懒惰是贫穷的原因。</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>slouch</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 懒人： a lazy person
 vt. 缓慢行走： to go or move slowly or reluctantly</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>is no slouch when it comes to cooking  做起饭来可一点也不懒
 He slouched towards the church as if going to his own funeral.   他缓缓地向教堂走去，仿佛是要去参加自己的葬礼一般。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>slovenly</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>For the sake of their image, the band members transformed themselves from clean-cut lads to slovenlyrockers.   为了他们自身的形象，乐队成员从健康向上的青年变成了邋遢的摇滚乐手。</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>sluggard</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>n. 懒人： an habitually lazy person</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>The teacher tried to wake up the sluggards who were still sleeping at that late hour.  老 师 尝 试 去 叫 醒那些还在睡觉的懒鬼们。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>sluggish</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 缓慢的，迟缓的： markedly slow in movement, flow, or growth
 adj. 迟钝的，反应慢的： slow to respond (as to stimulation or treatment)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>The sluggish pace of the project is worrisome.   项目进展缓慢让人担忧。
 Reptiles are naturally sluggish at low temperatures.  在低温下爬行动物的生理机能自然会趋于迟缓。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>slumber</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>vt. 睡着： to be in a state of sleep</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>She slumbered for hours while the train rolled on.   她在火车行进过程中睡了四个小时。</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>slur</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>n. 耻辱： a mark of guilt or disgrace
-vt. 含糊地发音： to pronounce indistinctly
-v. 疏忽，忽略： to slide or slip over without due mention, consideration, or emphasis</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-If you slur your words, the visa officer will have a hard time following you.   如果你说话含糊不清，签证官就很难听懂你的话。
-This documentary slurs over certain important facts as it offers a very biased case for a conspiracy theory.  </t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>n. 耻辱： a mark of guilt or disgrace</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>sly</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>adj. 狡猾的： clever or cunning, especially in the practice of deceit.
 adj. 隐秘的，偷偷的： given to acting in secret and to concealing one's intentions</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>The movie pairs a sly, dissembling ex-con with an upstanding, straight-arrow cop.   电影把一个狡猾、善于骗人的出狱犯和正直、坦率的警察搭配在了一起。
 took a sly look at the letter on the table  偷偷地看了一眼桌上的信</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>smarmy</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>adj. 虚情假意的，过分恭维的： hypocritically, complacently, or effusively earnest</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>He is slightly smarmy and eager to impress.   他有点虚伪，急于给人留下印象。</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>smart</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>adj. 反应敏捷的，聪颖的： characterized by sharp quick thought</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>a smart child who could do well in school  一个能在学校取得良好成绩的聪明孩子</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>smattering</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 浅薄的知识： superficialor piecemeal knowledge
 n. 少量： a small scattered number or amount</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>a smattering of Greek grammar  略懂希腊语语法
 Only a smattering of spectators presented.  只有少数几个观看者出席了。</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>smirk</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>vi. （自鸣得意地）笑： to smile in an affected, often offensively self-satisfied manner</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>She tried not to smirk when they announced the winner.  当他们宣布她获得了胜利时，她尽可能地保持不露出笑容。</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>smother</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 使窒息： to be or cause to be killed by lack of breathable air
 vt. 抑制（表达、说出），压制： to refrain from openly showing or uttering</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Children should never be leftin cars alone because they could become trapped and smothered.   小 孩 子不应该被单独留在车中，因为他们很容易因而被困并且窒息死亡。
 He quickly smothered his inappropriate laughter at the funeral ceremony.   他很快就控制住了自己在葬礼上不适当的笑声。
 Management smothered the true facts of the case.   管理层隐瞒了案件的真相。</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>smug</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>adj. 自大的，自鸣得意的： having too high an opinion of oneself
-adj. 整洁的，有序的： being clean and in good order本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>The winner was so smug that he lost the support of the crowd.   胜利者过于自大，以至于失去了群众的支持。
-The suburb's smug lawns and tree-lined streets bespeak a comfortable affluence.   郊区整齐有序的草坪和种满树木的街道，代表着其间的舒适和财富。</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+adj. 整洁的，有序的： being clean and in good order</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>The winner was so smug that he lost the support of the crowd.   胜利者过于自大，以至于失去了群众的支持。</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>smuggling</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>n. 走私，私运： secret importation or exportation contrary to the law and especially without payingduties imposed by law</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>He was arrested for smuggling drugs into the country.   他因为向境内走私毒品而被逮捕。</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>snare</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. 无法逃脱的困境： something that catches and holds
 vt. 捕捉： to capture by or as if by use of a snare</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Someday you'll find that your lies are a snare from which you can't escape.  总有一天你会发现，你所说过的谎话都会变成你无法逃脱的困境。
 caught in the snare of drug addiction  处于吸毒上瘾的困境之中
@@ -3278,140 +3395,140 @@
 The car salesmansuccessfully snared three potential customers.  汽车销售员成功地让三个潜在的客户上钩了。</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>snarl</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>v. 纠缠，纠结： to twist together into a usually confused mass
 vi. 咆哮，怒吼： to give vent to anger in surly language</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>You'll be awfully sorry if you snarl your fishing line.   要是你把渔网给缠在一起，你肯定会非常后悔的。
 Thenew regulation has succeeded in nothing but snarling up rush-hour traffic throughout the city.   新 的 政 策 只 将 全城高峰时期的交通变得更为复杂难解。
 She snarled at me after I kept badgering her with questions.   在我不断用问题骚扰她之后，她终于忍不住爆发了。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>sneer</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vt. （轻蔑地）嘲笑： to speak in a scornful, contemptuous, or derisive manner</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>They would invariably sneer every time they passed the hapless nerds.   每次经过那个不幸的书呆子身边时，他们总是会报以不变的嘲笑。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>snobbish</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>adj. 谄上傲下的，自大的： being or characteristic of a person who has an offensive air of superiorityand tends to ignore or disdain anyone regarded as inferior</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  热心和友好。</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>snub</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>v. 轻视，不理睬： to treat with contempt or neglect</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>The snob in town always snubbed anyone she thought was beneath her.   镇上那个自命不凡的人总是对那些她认为不如她的人不屑一顾。</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>soak</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>vt. 使…湿透： to make thoroughly wet or saturated by or as if by placing in liquid</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>That downpour soaked my hair, and now I look like a sight.   那场大雨把我的头发淋湿了，所以我现在看起来格外滑稽。
 We ran for home as soon as the rain started, but our clothes still ended up soaked.   我 们 一 发 觉下雨就开始往家里跑，但我们的衣服还是湿透了。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>sober</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 严肃的： marked by seriousness, gravity, or solemnity of conduct or character
 adj. 节制的： given to or marked by restraint in the satisfaction of one's appetites
 adj. 有理有据的： based on sound reasoning or information</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>She made a sober reply to what was only a teasing comment.   她很严肃地回复了那个恶搞的评论。
 Illness is a sober reminder of our mortality.  疾病是死亡给我们发出的严肃警告。
@@ -3419,482 +3536,404 @@
 a sober assessment of the situation  关于局势有理有据的分析</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>sodden</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adj. 湿透的： containing, covered with, or thoroughly penetrated by water
 vt. 使…湿透： to wet thoroughly with liquid</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>We stripped off our sodden clothes and wrung them dry.  我们脱下湿透了的衣服并将它们拧干。
 Soldiers' boots were soddened by endless hours in muddy trenches.   长时间身处泥泞的战壕使得士兵的靴子湿透了。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>solace</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>n. 安慰： comfort in sorrow, misfortune, or distress
 vt. 安慰，安抚： to comfort, cheer, or console, as in trouble or sorrow</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>The kind words brought a little solace to the grieving widow.   这些同情的话语给痛苦的寡妇带来了些许安慰。
 I did their my to solace those bereaved children.   我尽力去安抚那些失去双亲的孩子们。</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>solder</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>v. 连接，联合： to join or unite</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Wires are soldered onto the circuit board.   电线被焊接在电路板上。
 The agreement soldered the factionsinto an alliance.   两个派系因这份协议而结成同盟。</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>solemnity</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. 严肃： the quality or condition of being solemn</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solemnity is a trick of the body to hide the fault of the mind.   一本正经的态度，是肉体为了掩饰精神上的缺陷而耍的花招。
 The coronation ceremony requires absolute solemnity.  加冕典礼需要绝对的庄严肃穆。</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>solicitous</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 为他人操心的，体谅他人的： given to or made with heedful anticipation of the needs andhappiness of others
 adj. 迫切的，渴望的： showing urgent desire or interest</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">The solicitous husband had already cleaned the house and cooked dinner by the time his wife returnedhome from work.   这个十分体谅妻子的好丈夫在他妻子回家之前就把家里清理干净，还把晚餐都做好了。
 The family is solicitous to put this whole unfortunate affair behind them and to move on with their lives.  </t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>solid</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>adj. 固态的，坚固的： having a consistency that does not easily yield to pressure
 adj. 有理有据的： based on sound reasoning or information
 adj. 坚定的，不迟疑的： not showing weakness or uncertainty</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>The ice cream is too solid to scoop right now.   冰淇淋现在太硬了，根本舀不动。
 the only solid conclusion that the jury could have reached  陪审团唯一可能做出的合理结论
 Some people see a solid handshake as a sign of strong character.   有人认为握手毫不迟疑的人有着很强势的性格。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>soliloquy</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>n. （尤指自言自语的）独白： a dramatic or literary form of discourse in which a character talks to himselfor herself or reveals his or her thoughts without addressing a listener</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>A soliloquy always reveals the character’s thoughts and feeling.   一段独白经常反映出人物的思想和感情。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>solitude</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 孤独，避世： the quality or state of being alone or remote from society</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>He sought the kind of solitude where his thoughts would be his only companions.   他在寻找一种孤独感，只有他的思想陪伴着他。
 She wished to work on her novel in solitude.   她想一个人安静地完成小说。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>solvent</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>adj. 有偿付能力的： able to pay all legal debts
 n. 溶剂： a substance in which another substance is dissolved, forming a solution</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">They're going to have to prove that the company is now solvent.   接下来他们必须要证明公司的偿贷能力。
 Some organic solvents, such as benzene, pyridine, furan, are poisonous to human’s reproductive system.  </t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>somatic</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>adj. 肉体的： of the body, especially as distinguished from a body part, the mind, or the environment</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>a somatic disorder that was once thought to be “all in the patient’s head” 曾被认为“全是病人头脑中的问题”的生理机能紊乱</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>somber</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 昏暗的，无光的： so shaded as to be dark and gloomy</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">The prison's somber interrogation room has the desired effect of striking fear and despair into the prisoner.  </t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>somnolence</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>n. 瞌睡，嗜睡： the quality or state of desiring or needing sleep</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Somnolence is likely to be the most typical reaction to this novel.  读这部小说最典型的感受就是想睡觉。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>sonnet</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>n. 十四行诗： a 14-line verse form usually having one of several conventional rhyme schemes</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>a sonnet that celebrates love  一首歌颂爱情的十四行诗</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>soothe</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>vt. 带来慰藉，安慰： to bring comfort, solace, or reassurance to
-vt. 使镇静，使安心： to free from distress or disturbance
-vt. 弱化，缓解： to make more bearable or less severe</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
+vt. 使镇静，使安心： to free from distress or disturbance</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>There seemed to be no words sufficient to soothethe widow.  任何话语好像都不足以安慰这个寡妇。
-He took her in his arms and soothed her.   他把她抱在怀中以让她镇静下来。
-Hot tea with honey will soothe a sore throat.   加了蜂蜜的热茶可以缓解喉咙的酸痛。</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+He took her in his arms and soothed her.   他把她抱在怀中以让她镇静下来。</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>sop</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>n. 安慰物： something yielded to placate or soothe
 n. 贿赂，回扣： something given or promised in order to improperly influence a person's conductor decision
 vt. 浸湿，湿透： to wet thoroughly</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>to provide with the salary raise as a sop  提高工资作为安慰
 As a sop to the teachers' union for supporting his reelection campaign, the mayor promised to push for theabolition of the residency requirement.   市长答应推动废除获得绿卡的限制条件，以此作为换取选举中教师联盟支持的条件。
 My book fell in the swimming pool and was thoroughly sopped before I could fish it out.   我 的 书 掉 进 了 游泳池，在我把它捞出来之前已经彻底湿透了。</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>sophism</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>n. 假推理，诡辩： deceptive or fallacious argumentation</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Political selection is more dependent on sophism and less on economic literacy.   政治选举更多的是依靠诡辩，而非简练的文笔。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>sophisticated</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 精明的，老于世故的： having acquired worldly knowledge or refinement; lacking naturalsimplicity or naiveté
 adj. 复杂的： very complex or complicated</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>On the train I met a surprisingly sophisticated and widely traveled child.   在火车上我见到了一个老练得让人惊讶的、见多识广的孩子。
 a very sophisticated machine that is a marvel of modern design  一个十分复杂的机器，是现代设计的最高成就</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>soporific</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>n. 安眠药： a drug or other substance that induces sleep
-adj. 催眠的： causing or tending to cause sleep
-adj. 慵懒的，困倦的： of, relating to, or marked by sleepiness or lethargy</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-This medication is soporific, so do not drive after taking it.   这种药物是催眠的，服用之后切忌开车。
-thesoporific heat of summer  夏日里催人欲睡的阳光
-A big lunch always makes me soporific in the afternoon.  中午一顿大餐总是让我下午感到困倦。</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>sordid</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>adj. 肮脏的，不干净的： not clean
-adj. 卑鄙的： marked by baseness or grossness</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>I will not let my children grow up in such a sordid environment.   我绝不会让我的孩子在这样一个肮脏的环境之中成长。</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>sound</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adj. 牢固的，不可动摇的： marked by the ability to withstand stress without structural damage ordistortion
-adj. 健康的，强壮的： free from injury or disease: exhibiting normal health
-adj. （逻辑上）严谨的： based on valid reasoning</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>The bridge is structurally sound.   这座大桥在结构上是稳固的。
-The horse is getting old, but still perfectly sound.   虽然在变老，但这匹马依然相当健康。
-Sound reasoning alone should tell you that the result is invalid.   从纯粹严谨的逻辑演绎出发，这个结论是不正确的。</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_7.xlsx
+++ b/result/生词本导入模版_7.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>salutary</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 有益健康的： beneficial, promoting health</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>a salutary warning  善意的警告</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>salutary</t>
+          <t>salutation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 有益健康的： beneficial, promoting health</t>
+          <t>n. 致敬，打招呼（表示欢迎和礼貌）： a polite expression of greeting or goodwill
+n. 表扬： a formal expression praise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a salutary warning  善意的警告</t>
+          <t>The veteran stepped forward, raising his hand in salutation.   老兵向前一步，举起手致敬。
+The speaker introduced the evening's honored guest with a lavish salutation.   主持人用大量表扬的话介绍了今晚的嘉宾。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,19 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>salutation</t>
+          <t>salvage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 致敬，打招呼（表示欢迎和礼貌）： a polite expression of greeting or goodwill
-n. 表扬： a formal expression praise</t>
+          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The veteran stepped forward, raising his hand in salutation.   老兵向前一步，举起手致敬。
-The speaker introduced the evening's honored guest with a lavish salutation.   主持人用大量表扬的话介绍了今晚的嘉宾。</t>
+          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,17 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>salvage</t>
+          <t>salve</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
+          <t>v. 减轻，缓解： quiet, assuage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
+          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +514,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>salve</t>
+          <t>sanctify</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>v. 减轻，缓解： quiet, assuage</t>
+          <t>vt. 使神圣，敬为神： to make holy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
+          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,17 +536,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sanctify</t>
+          <t>sanctimonious</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vt. 使神圣，敬为神： to make holy</t>
+          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
+          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,17 +558,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sanctimonious</t>
+          <t>sanction</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
+          <t>v. 批准，同意，认可： to make valid or binding usually by a formal procedure (as ratification)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
+          <t>The President sanctioned covert operations.   总统批准了秘密行动
+The administration will sanctionalmost any field trip with educational value.   基本上任何有教育意义的实地考察都可以得到批准。</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,18 +581,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sanction</t>
+          <t>sanctuary</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>v. 批准，同意，认可： to make valid or binding usually by a formal procedure (as ratification)</t>
+          <t>n. 避难所： a place of refuge and protection</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The President sanctioned covert operations.   总统批准了秘密行动
-The administration will sanctionalmost any field trip with educational value.   基本上任何有教育意义的实地考察都可以得到批准。</t>
+          <t>In earlier times a criminal could use a church as a sanctuary.   在早期，犯罪分子可以将教堂当作避难所。</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -615,17 +603,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sanctuary</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 避难所： a place of refuge and protection</t>
+          <t>vt. 磨光： to make smooth by friction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>In earlier times a criminal could use a church as a sanctuary.   在早期，犯罪分子可以将教堂当作避难所。</t>
+          <t>Be sure to sand before you paint the shelf.  在上漆之前一定要先磨光。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -637,17 +625,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>sanguine</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vt. 磨光： to make smooth by friction</t>
+          <t>adj. 乐观的，确信的： having or showing a mind free from doubt
+adj. 面色红润的： having a healthy reddish skin tone</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Be sure to sand before you paint the shelf.  在上漆之前一定要先磨光。</t>
+          <t>I'm reasonably sanguine about the adoption of the latest proposal.   我非常看好最新的那项提议获得通过。
+a baby with a sanguine complexion is more likely to leave the hospital early than a sickly-looking one  面色红润的新生儿比病怏怏的能更早出院</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -659,19 +649,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sanguine</t>
+          <t>sanitary</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>adj. 乐观的，确信的： having or showing a mind free from doubt
-adj. 面色红润的： having a healthy reddish skin tone</t>
+          <t>adj. 健康的，清洁的： of or relating to health</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I'm reasonably sanguine about the adoption of the latest proposal.   我非常看好最新的那项提议获得通过。
-a baby with a sanguine complexion is more likely to leave the hospital early than a sickly-looking one  面色红润的新生儿比病怏怏的能更早出院</t>
+          <t>sanitary measures  保健的手段</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,17 +671,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sanitary</t>
+          <t>sap</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adj. 健康的，清洁的： of or relating to health</t>
+          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sanitary measures  保健的手段</t>
+          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,17 +693,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sap</t>
+          <t>sapient</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
+          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
+          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,17 +715,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sapient</t>
+          <t>sarcasm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
+          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
+          <t>a voice full of sarcasm  充满轻蔑的言论</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,17 +737,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sarcasm</t>
+          <t>sartorial</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
+          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a voice full of sarcasm  充满轻蔑的言论</t>
+          <t>poor sartorial taste  很烂的穿衣品位</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,17 +759,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sartorial</t>
+          <t>sate</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
+          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>poor sartorial taste  很烂的穿衣品位</t>
+          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,17 +781,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sate</t>
+          <t>satiate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
+          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
+          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,17 +803,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>satiate</t>
+          <t>satire</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
+          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
+          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,17 +825,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>satire</t>
+          <t>satirize</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
+          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
+          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,17 +847,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>satirize</t>
+          <t>saturate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
+          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
+          <t>Saturate the sponge with water.   将海绵浸透</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,17 +869,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>saturate</t>
+          <t>saturnine</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
+          <t>adj. 忧郁的，阴沉的： causing or marked by an atmosphere lacking in cheer
+adj. 讥讽的： having a sardonic aspect</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Saturate the sponge with water.   将海绵浸透</t>
+          <t>The men awaiting interrogation by the police shared a saturnine silence.   等待警察审问的人们脸色阴沉，沉默不语。
+a saturnine smile  讥讽的笑容</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,19 +893,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>saturnine</t>
+          <t>saunter</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 忧郁的，阴沉的： causing or marked by an atmosphere lacking in cheer
-adj. 讥讽的： having a sardonic aspect</t>
+          <t>vi. 闲逛，漫步： to travel by foot for exercise or pleasure</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The men awaiting interrogation by the police shared a saturnine silence.   等待警察审问的人们脸色阴沉，沉默不语。
-a saturnine smile  讥讽的笑容</t>
+          <t>sauntered slowly down the street  在街上闲逛</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -927,17 +915,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>saunter</t>
+          <t>savant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vi. 闲逛，漫步： to travel by foot for exercise or pleasure</t>
+          <t>n. 博学之士，学者： a person of learning</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sauntered slowly down the street  在街上闲逛</t>
+          <t>a savant in the field of medical ethics  医学伦理方面的专家</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -949,17 +937,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>savant</t>
+          <t>savory</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n. 博学之士，学者： a person of learning</t>
+          <t>adj. 口感好的，味道好的： appetizing to the taste or smell
+adj. 令人愉悦的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a savant in the field of medical ethics  医学伦理方面的专家</t>
+          <t>cedar is one of the most savory of all woods  雪松是所有树木中味道最好闻的
+having to fire someone was not a task that the manager found at all savory  经理发现不得不开除某人是件非常不讨好的事</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -971,21 +961,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>savory</t>
+          <t>savvy</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. 口感好的，味道好的： appetizing to the taste or smell
-adj. 令人愉悦的： giving pleasure or contentment to the mind or senses</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cedar is one of the most savory of all woods  雪松是所有树木中味道最好闻的
-having to fire someone was not a task that the manager found at all savory  经理发现不得不开除某人是件非常不讨好的事</t>
-        </is>
-      </c>
+          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -995,15 +979,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>savvy</t>
+          <t>scads</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>n. 许多，大量： a large number or quantity</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1013,17 +1001,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>scads</t>
+          <t>scant</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>n. 许多，大量： a large number or quantity</t>
+          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
+          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,17 +1023,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>scant</t>
+          <t>scathing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
+          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
+          <t>a scathing review of the book  尖刻的书评</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,17 +1045,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>scathing</t>
+          <t>schism</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
+          <t>n. 不一致： a lack of agreement or harmony</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a scathing review of the book  尖刻的书评</t>
+          <t>a schism between political parties  党派间的冲突</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,17 +1067,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>schism</t>
+          <t>scintillate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>n. 不一致： a lack of agreement or harmony</t>
+          <t>vi. 闪耀： to emit sparks</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>a schism between political parties  党派间的冲突</t>
+          <t>diamond ring scintillated in the sunlight  钻戒在阳光下闪闪发光
+a scintillating conversation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,18 +1090,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>scintillate</t>
+          <t>scion</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vi. 闪耀： to emit sparks</t>
+          <t>n. 子孙： descendant, child</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>diamond ring scintillated in the sunlight  钻戒在阳光下闪闪发光
-a scintillating conversation</t>
+          <t>scion of a railroad empire  铁路大王的后代</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1124,17 +1112,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>scion</t>
+          <t>scission</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 子孙： descendant, child</t>
+          <t>n. 切断，分离，分裂： a division or split in a group or union: schism</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>scion of a railroad empire  铁路大王的后代</t>
+          <t>The scission of the labor union will compromise the workers' bargaining power  工 会 内 部的 分 裂会 削弱工人讨价的力量</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1146,17 +1134,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>scission</t>
+          <t>scoff</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n. 切断，分离，分裂： a division or split in a group or union: schism</t>
+          <t>vt. 嘲笑： to treat or address with derision: mock
+v. 狼吞虎咽： to swallow or eat greedily</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The scission of the labor union will compromise the workers' bargaining power  工 会 内 部的 分 裂会 削弱工人讨价的力量</t>
+          <t>scoffed at the idea  对这个提议不屑一顾
+scoffed dinner before running off to the basketball game  风卷残云般把晚饭消灭了，就直奔向篮球场</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1168,19 +1158,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>scoff</t>
+          <t>scorch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vt. 嘲笑： to treat or address with derision: mock
-v. 狼吞虎咽： to swallow or eat greedily</t>
+          <t>vt. 炙烤，烘干： to burn on the surface; to make dry</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>scoffed at the idea  对这个提议不屑一顾
-scoffed dinner before running off to the basketball game  风卷残云般把晚饭消灭了，就直奔向篮球场</t>
+          <t>scorching sun  火辣辣的太阳</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1192,17 +1180,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>scorch</t>
+          <t>scorn</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vt. 炙烤，烘干： to burn on the surface; to make dry</t>
+          <t>vt. 轻蔑，鄙视，不屑： reject or dismiss as contemptible or unworthy</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>scorching sun  火辣辣的太阳</t>
+          <t>They were scorned as fanatics.   他们被指责为狂热分子。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1214,17 +1202,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>scorn</t>
+          <t>scotch</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 轻蔑，鄙视，不屑： reject or dismiss as contemptible or unworthy</t>
+          <t>vt. 停止： to put an abrupt end to</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>They were scorned as fanatics.   他们被指责为狂热分子。</t>
+          <t>The prime minister scotched the rumors of her illness.   首相出面澄清了关于她死亡的谣言。</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1236,19 +1224,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>scotch</t>
+          <t>scour</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vt. 停止： to put an abrupt end to</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>The prime minister scotched the rumors of her illness.   首相出面澄清了关于她死亡的谣言。</t>
-        </is>
-      </c>
+          <t>vt. 用力擦洗： to clean, polish, or wash by scrubbing vigorously
+vt. 搜查： to look through (as a place) carefully or thoroughly in an effort to find or discoversomething</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1258,16 +1243,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>scour</t>
+          <t>scowl</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vt. 用力擦洗： to clean, polish, or wash by scrubbing vigorously
-vt. 搜查： to look through (as a place) carefully or thoroughly in an effort to find or discoversomething</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>vi. 皱眉（表现出不高兴）： to contract the brow in an expression of displeasure</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>scowled down at the misbehaving child  对淘气的孩子皱起了眉</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1277,17 +1265,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>scowl</t>
+          <t>scrappy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vi. 皱眉（表现出不高兴）： to contract the brow in an expression of displeasure</t>
+          <t>adj. 好斗的，好吵架的： having an aggressive and determined spirit，quarrelsome</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>scowled down at the misbehaving child  对淘气的孩子皱起了眉</t>
+          <t>She was a scrappy girl despite—or, perhaps, because of—her small size.  这个妹子好打斗，但是身材娇小，不过这很可能是原因</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,45 +1287,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>scrappy</t>
+          <t>scrap</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. 好斗的，好吵架的： having an aggressive and determined spirit，quarrelsome</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>She was a scrappy girl despite—or, perhaps, because of—her small size.  这个妹子好打斗，但是身材娇小，不过这很可能是原因</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>scrap</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>n. 废料，废物： discarded or useless material
 vt. 抛弃： to get rid of as useless or unwanted
 v. 终止，放弃原计划： to put an end to (something planned or previously agreed to)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>The rest of this stuff is just scrap, so sweep it up and throw it away.   剩下的这堆东西都是没用的，把它们打扫一下就扔了吧。
 We've decided to scrap the first car.   我们决定丢弃第一辆车。
 We scrapped our plans to go to Paris, and set out the next day for Prague.  我们取消了去巴黎的计划，第二天启程奔赴布拉格。</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>scrawl</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>vt. 乱涂，潦草地写： to write or draw awkwardly, hastily, or carelessly</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>scrawled a quick note, stuck it in their mailbox, and hurried off  草草写了张便条，塞进他们的信箱然后匆匆跑了</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1347,17 +1335,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>scrawl</t>
+          <t>scribble</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vt. 乱涂，潦草地写： to write or draw awkwardly, hastily, or carelessly</t>
+          <t>vt. 潦草地书写，乱写： to cover with scribbles, doodles, or meaningless marks</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>scrawled a quick note, stuck it in their mailbox, and hurried off  草草写了张便条，塞进他们的信箱然后匆匆跑了</t>
+          <t>Students scribbled furiously as the teacher lectured.  老师一边讲，学生们一边狂抄笔记。</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1369,17 +1357,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>scribble</t>
+          <t>scrupulous</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vt. 潦草地书写，乱写： to cover with scribbles, doodles, or meaningless marks</t>
+          <t>adj. 正直的： guided by or in accordance with one's sense of right and wrong; principled
+adj. 一丝不苟的： taking, showing, or involving great care and effort</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Students scribbled furiously as the teacher lectured.  老师一边讲，学生们一边狂抄笔记。</t>
+          <t>Less scrupulous companies find ways to evade the law.  道德程度略低的公司钻法律的空子。
+The task requires scrupulous attention to detail.  这项任务需要对细节一丝不苟。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1391,19 +1381,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>scrupulous</t>
+          <t>scrutable</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 正直的： guided by or in accordance with one's sense of right and wrong; principled
-adj. 一丝不苟的： taking, showing, or involving great care and effort</t>
+          <t>adj. 可以理解的： capable of being understood through study and observation; comprehensible.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Less scrupulous companies find ways to evade the law.  道德程度略低的公司钻法律的空子。
-The task requires scrupulous attention to detail.  这项任务需要对细节一丝不苟。</t>
+          <t>Her machinations and motives are all too scrutable to us who know her.   她的阴谋和动机对于了解她的我们来说非常昭然若揭</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1415,17 +1403,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>scrutable</t>
+          <t>scrutinize</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 可以理解的： capable of being understood through study and observation; comprehensible.</t>
+          <t>vt. 仔细检查： to examine or observe with great care</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Her machinations and motives are all too scrutable to us who know her.   她的阴谋和动机对于了解她的我们来说非常昭然若揭</t>
+          <t>I closely scrutinized my opponent's every move.  我仔细注意着对手的每一个举动。</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1437,17 +1425,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>scrutinize</t>
+          <t>scuff</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vt. 仔细检查： to examine or observe with great care</t>
+          <t>vt. 磨损： to become scratched, chipped, or roughened by wear
+v. 脚步拖沓： to move heavily or clumsily</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>I closely scrutinized my opponent's every move.  我仔细注意着对手的每一个举动。</t>
+          <t>a countertop that won't scuff  一块不易磨损的厨房台面
+The miners scuffed past in heavy boots.   矿工们脚着厚重的靴子，步履蹒跚。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1459,19 +1449,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>scuff</t>
+          <t>scurrilous</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vt. 磨损： to become scratched, chipped, or roughened by wear
-v. 脚步拖沓： to move heavily or clumsily</t>
+          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>a countertop that won't scuff  一块不易磨损的厨房台面
-The miners scuffed past in heavy boots.   矿工们脚着厚重的靴子，步履蹒跚。</t>
+          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1483,17 +1471,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>scurrilous</t>
+          <t>scurvy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
+          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
+          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1505,17 +1493,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>scurvy</t>
+          <t>seamy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
+          <t>adj. 肮脏的，堕落的： sordid; base</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
+          <t>the seamy side of urban life  城市生活的肮脏面</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1527,17 +1515,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>seamy</t>
+          <t>secluded</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 肮脏的，堕落的： sordid; base</t>
+          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>the seamy side of urban life  城市生活的肮脏面</t>
+          <t>secluded monks  隐居的僧人</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1549,17 +1537,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>secluded</t>
+          <t>secrete</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
+          <t>vt. 隐藏： to conceal in a hiding place; cache
+vt. 分泌： to generate and separate (a substance) from cells or bodily fluids</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>secluded monks  隐居的僧人</t>
+          <t>The police found the weapon secreted under the driver's seat of the getaway car.   警方在逃逸车辆驾驶座下发现了隐藏的武器。</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1571,18 +1560,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>secrete</t>
+          <t>sedate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 隐藏： to conceal in a hiding place; cache
-vt. 分泌： to generate and separate (a substance) from cells or bodily fluids</t>
+          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The police found the weapon secreted under the driver's seat of the getaway car.   警方在逃逸车辆驾驶座下发现了隐藏的武器。</t>
+          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1594,17 +1582,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sedate</t>
+          <t>sedentary</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
+          <t>adj. 固定不动的： not migratory: settled</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
+          <t>a sedentary lifestyle  很宅的生活方式</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1616,17 +1604,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sedentary</t>
+          <t>seduce</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 固定不动的： not migratory: settled</t>
+          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>a sedentary lifestyle  很宅的生活方式</t>
+          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1638,17 +1626,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>seduce</t>
+          <t>sedulous</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
+          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
+          <t>a sedulous student  一个勤奋地学生</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1660,17 +1648,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sedulous</t>
+          <t>seemly</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
+          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>a sedulous student  一个勤奋地学生</t>
+          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1682,17 +1670,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>seemly</t>
+          <t>segment</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
+          <t>vt./n. 分割，部分： to separate into segments</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
+          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1704,17 +1692,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>segment</t>
+          <t>seminal</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vt./n. 分割，部分： to separate into segments</t>
+          <t>adj. 有发展性的： containing or contributing the seeds of later development
+adj. 创新的： of, relating to, or having the power to originate; creative</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
+          <t>a seminal novel  新颖的小说</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1726,18 +1715,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>seminal</t>
+          <t>sensation</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 有发展性的： containing or contributing the seeds of later development
-adj. 创新的： of, relating to, or having the power to originate; creative</t>
+          <t>n. 感觉，知觉： a perception associated with stimulation of a sense organ or with a specific bodycondition
+n. 轰动事件： a state of intense public interest and excitement</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>a seminal novel  新颖的小说</t>
+          <t>We felt just the smallest sensation of warmth when we leaned against the radiator.   当我们靠着取暖器的时候，我们也仅仅感到了一点点的温度。
+the rookie hitting sensation of the American League  这个菜鸟的表现轰动了整个全美大联盟</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1749,19 +1739,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sensation</t>
+          <t>sensitive</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 感觉，知觉： a perception associated with stimulation of a sense organ or with a specific bodycondition
-n. 轰动事件： a state of intense public interest and excitement</t>
+          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>We felt just the smallest sensation of warmth when we leaned against the radiator.   当我们靠着取暖器的时候，我们也仅仅感到了一点点的温度。
-the rookie hitting sensation of the American League  这个菜鸟的表现轰动了整个全美大联盟</t>
+          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1773,17 +1761,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sensitive</t>
+          <t>sentinel</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
+          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
+          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1795,17 +1783,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sentinel</t>
+          <t>sepulchral</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
+          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
+          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1817,19 +1805,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sepulchral</t>
+          <t>septic</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
-        </is>
-      </c>
+          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1839,12 +1823,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>septic</t>
+          <t>sequela</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
+          <t>n. 结果： a secondary consequence or result</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1857,15 +1841,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sequela</t>
+          <t>sequester</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n. 结果： a secondary consequence or result</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>vt. 使隔绝，分离： to set apart: segregate
+vt. 使隐退： to cause to withdraw into seclusion</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sequester a jury  让陪审团分开讨论
+She was sequestered in her room.   她深居简出。</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1875,19 +1865,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sequester</t>
+          <t>sere</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vt. 使隔绝，分离： to set apart: segregate
-vt. 使隐退： to cause to withdraw into seclusion</t>
+          <t>adj. 干枯的，凋萎的： being dried and withered</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sequester a jury  让陪审团分开讨论
-She was sequestered in her room.   她深居简出。</t>
+          <t>a sere region that can't support agriculture  一片贫瘠不能发展农业的地区</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1899,17 +1887,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sere</t>
+          <t>serendipity</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>adj. 干枯的，凋萎的： being dried and withered</t>
+          <t>n. 意外发现珍奇(或称心)事物的本领： the faculty of making fortunate discoveries by accident</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>a sere region that can't support agriculture  一片贫瘠不能发展农业的地区</t>
+          <t>They found each other by pure serendipity.  他俩的相识属于缘分天注定。</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1921,17 +1909,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>serendipity</t>
+          <t>serene</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. 意外发现珍奇(或称心)事物的本领： the faculty of making fortunate discoveries by accident</t>
+          <t>adj. 安静的： free from disturbing noise or uproar
+adj. 稳重的，镇静的： unaffected by disturbance; calm and unruffled</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>They found each other by pure serendipity.  他俩的相识属于缘分天注定。</t>
+          <t>a serene vacation spot  一处宁谧的度假胜地
+a serene man who was everyone's source of support  一个沉着镇静的男人，他是所有人的精神支柱</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1943,19 +1933,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>serene</t>
+          <t>sermon</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>adj. 安静的： free from disturbing noise or uproar
-adj. 稳重的，镇静的： unaffected by disturbance; calm and unruffled</t>
+          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>a serene vacation spot  一处宁谧的度假胜地
-a serene man who was everyone's source of support  一个沉着镇静的男人，他是所有人的精神支柱</t>
+          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1967,17 +1955,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sermon</t>
+          <t>serpentine</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
+          <t>adj. 弯曲的： winding or turning one way and another</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
+          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1989,17 +1977,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>serpentine</t>
+          <t>serrate</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 弯曲的： winding or turning one way and another</t>
+          <t>adj. 锯齿状的： notched or toothed on the edge</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
+          <t>a serrate leaf  锯齿状的叶片</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2011,17 +1999,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>serrate</t>
+          <t>serried</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 锯齿状的： notched or toothed on the edge</t>
+          <t>adj. 密集的： having little space between items or parts</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>a serrate leaf  锯齿状的叶片</t>
+          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2033,17 +2021,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>serried</t>
+          <t>servile</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 密集的： having little space between items or parts</t>
+          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
+          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2055,19 +2043,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>servile</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
-        </is>
-      </c>
+          <t>severe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2077,11 +2057,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+          <t>shackle</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>vt. 束缚： to deprive of freedom especially of action by means of restrictions or handicaps
+v. 限制，阻碍： to create difficulty for the work or activity of</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>unwilling to shackle the dogs to the wall of the house  不愿意把狗拴在墙边
+shackled by poverty and ignorance  被贫穷和无知所阻碍</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2091,19 +2081,18 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>shackle</t>
+          <t>shadow</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>vt. 束缚： to deprive of freedom especially of action by means of restrictions or handicaps
-v. 限制，阻碍： to create difficulty for the work or activity of</t>
+          <t>vt. 偷偷尾随： to follow especially secretly: trail</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>unwilling to shackle the dogs to the wall of the house  不愿意把狗拴在墙边
-shackled by poverty and ignorance  被贫穷和无知所阻碍</t>
+          <t>shadowing the suspect to see what he was up to  尾随嫌犯行踪
+He had only a shadowy idea of what they wanted him to do.   他对要做的事只有一个模糊的想法。</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2115,18 +2104,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>shadow</t>
+          <t>shallow</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vt. 偷偷尾随： to follow especially secretly: trail</t>
+          <t>adj. 浅显的，浅薄的： having or showing a lack of depth of understanding or character</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>shadowing the suspect to see what he was up to  尾随嫌犯行踪
-He had only a shadowy idea of what they wanted him to do.   他对要做的事只有一个模糊的想法。</t>
+          <t>shallow generalizations  一个浅显的概览</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2138,45 +2126,45 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>shallow</t>
+          <t>sham</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>adj. 浅显的，浅薄的： having or showing a lack of depth of understanding or character</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>shallow generalizations  一个浅显的概览</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>sham</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
         <is>
           <t>n. 欺瞒： the quality of deceitfulness; empty pretense
 v. 掩饰，假装： to present a false appearance of
 adj. 虚假的： not genuine; fake</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>condemned the rigged election as a total sham  指责这次有作弊的选举是彻头彻尾的骗局
 shammed a most unconvincing limp just to get sympathy  非常拙劣地假装自己腿脚不便，以博得同情
 street vendors selling sham designer handbags to gullible tourists  街头小贩向易上当的游客兜售山寨的设计师手包</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>shiftless</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2186,17 +2174,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>shiftless</t>
+          <t>shipshape</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
+          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
+          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2208,17 +2196,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>shipshape</t>
+          <t>shirk</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
+          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
+          <t>shirk one’s duty  逃避责任</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2230,17 +2218,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>shirk</t>
+          <t>shoal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
+          <t>adj. 浅的： having little depth ; shallow.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>shirk one’s duty  逃避责任</t>
+          <t>shoal waters of the bay  海湾附近的浅水区</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2252,17 +2240,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>shoal</t>
+          <t>shopworn</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 浅的： having little depth ; shallow.</t>
+          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>shoal waters of the bay  海湾附近的浅水区</t>
+          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2274,17 +2262,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>shopworn</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
+          <t>n. 少量： a small amount; a particle</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
+          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2296,17 +2284,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>shrewd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>n. 少量： a small amount; a particle</t>
+          <t>adj. 精明的，机敏的： having or showing a practical cleverness or judgment
+adj. 刺骨的，强烈的： causing intense discomfort to one's skin</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
+          <t>He's shrewd about his investments.   他是个精明的投资人。
+She pulled her coat tighter against the shrewd breeze whipping down the alley.  巷子里挂着刺骨的风，她拉紧了大衣。</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2318,47 +2308,47 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>shrewd</t>
+          <t>shrink</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>adj. 精明的，机敏的： having or showing a practical cleverness or judgment
-adj. 刺骨的，强烈的： causing intense discomfort to one's skin</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>He's shrewd about his investments.   他是个精明的投资人。
-She pulled her coat tighter against the shrewd breeze whipping down the alley.  巷子里挂着刺骨的风，她拉紧了大衣。</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>shrink</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
         <is>
           <t>v. 在数量或价值方面变低；减小： to become reduced in amount or value; dwindle:
 v. 本能性地退却（如因遇到使人惊恐的某物）；退缩： to draw back instinctively, as from somethingalarming; recoil
 v. 表示出不情愿；犹豫： to show reluctance; hesitate:</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>His savings quickly shrank.   他的存款急剧减少。
 shrinking back from the approaching flames  对着燃烧的火焰望而却步
 shrink from making such a sacrifice  对做出这样的牺牲犹豫不决</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>shroud</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>n. 隐蔽物，可起隐藏、保护或屏护作用的某物： something that conceals, protects, or screens:
+v. 将…从视线中隔离，遮蔽： to shut off from sight; screen</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>under a shroud of fog  在迷雾的掩护下
+shrouded the fact that the child had been adopted  将孩子是领养的这个事实隐藏起来</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2368,19 +2358,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>shroud</t>
+          <t>shrug</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 隐蔽物，可起隐藏、保护或屏护作用的某物： something that conceals, protects, or screens:
-v. 将…从视线中隔离，遮蔽： to shut off from sight; screen</t>
+          <t>v. 轻视，忽略： to dismiss as of little importance
+v. 脱下（衣物等）： to rid oneself of (a garment)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>under a shroud of fog  在迷雾的掩护下
-shrouded the fact that the child had been adopted  将孩子是领养的这个事实隐藏起来</t>
+          <t>The administration was willing to shrug off the problem.   当局有意忽略这个问题。
+She shrugged off her coat and hung it up neatly.   她脱下了她的大衣，将其整齐地挂好。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2392,19 +2382,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>shrug</t>
+          <t>shun</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>v. 轻视，忽略： to dismiss as of little importance
-v. 脱下（衣物等）： to rid oneself of (a garment)</t>
+          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>The administration was willing to shrug off the problem.   当局有意忽略这个问题。
-She shrugged off her coat and hung it up neatly.   她脱下了她的大衣，将其整齐地挂好。</t>
+          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2416,17 +2404,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>shun</t>
+          <t>sidestep</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
+          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
+          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2438,17 +2426,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sidestep</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
+          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
+          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2460,17 +2448,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>simpleton</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
+          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
+          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2482,17 +2470,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>simpleton</t>
+          <t>simulate</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
+          <t>v. 假装，模仿： to have or take on the appearance, form, or sound of; imitate
+v. 模拟： to create a representation or model of (a physical system or particular situation)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
+          <t>cosmetics that simulate a suntan  用来模仿晒黑效果的化妆品
+carrying out an experiment to simulate weightlessness  进行了模拟失重状态的实验</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2504,19 +2494,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>simulate</t>
+          <t>sin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>v. 假装，模仿： to have or take on the appearance, form, or sound of; imitate
-v. 模拟： to create a representation or model of (a physical system or particular situation)</t>
+          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>cosmetics that simulate a suntan  用来模仿晒黑效果的化妆品
-carrying out an experiment to simulate weightlessness  进行了模拟失重状态的实验</t>
+          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2528,17 +2516,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>sincere</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
+          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
+          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2550,17 +2538,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sincere</t>
+          <t>sinecure</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
+          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
+          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2572,17 +2560,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sinecure</t>
+          <t>sinew</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
+          <t>n. 活力，力量： vigorous strength; muscular power</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
+          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2594,17 +2582,18 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sinew</t>
+          <t>singe</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 活力，力量： vigorous strength; muscular power</t>
+          <t>vt. 轻微烧焦： to burn superficially or lightly</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
+          <t>The iron is too hot, and you'll singe the nightdress.   熨斗太烫了，你会把睡衣烫坏的。
+The marshmallowsgot a bit singed over the campfire, but we like them that way.  棉花糖因为营火而有些许烧焦，但我们还是很喜欢它的味道。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2616,18 +2605,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>singe</t>
+          <t>sinuous</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>vt. 轻微烧焦： to burn superficially or lightly</t>
+          <t>adj. 蜿蜒的，迂回的： marked by a long series of irregular curves; not direct</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>The iron is too hot, and you'll singe the nightdress.   熨斗太烫了，你会把睡衣烫坏的。
-The marshmallowsgot a bit singed over the campfire, but we like them that way.  棉花糖因为营火而有些许烧焦，但我们还是很喜欢它的味道。</t>
+          <t>The river flowed in a sinuous path through the lush valley.   蜿 蜒 曲 折 的 河 流 流 过 茂 密 的 山 谷 。
+Thirty-year-old men are novel, rich in content and sinuous in plots.   三十岁的男人是小说，内容丰富，情节曲折。</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2639,18 +2628,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sinuous</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 蜿蜒的，迂回的： marked by a long series of irregular curves; not direct</t>
+          <t>vt. （尤指小口地）喝： to swallow in liquid form, especially in small quantities</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>The river flowed in a sinuous path through the lush valley.   蜿 蜒 曲 折 的 河 流 流 过 茂 密 的 山 谷 。
-Thirty-year-old men are novel, rich in content and sinuous in plots.   三十岁的男人是小说，内容丰富，情节曲折。</t>
+          <t>slowly sipping the hot soup  慢慢地喝着热汤
+She sipped her coffee while she watched the sun rise.   她一边看着日出，一边喝着她的咖啡。</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2662,18 +2651,18 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>skeleton</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vt. （尤指小口地）喝： to swallow in liquid form, especially in small quantities</t>
+          <t>n. 骨架，框架： something forming a structural framework</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>slowly sipping the hot soup  慢慢地喝着热汤
-She sipped her coffee while she watched the sun rise.   她一边看着日出，一边喝着她的咖啡。</t>
+          <t>Only the charred skeleton of the house remained after the fire.   大火过后整个房子只剩下被烧焦的骨架了。
+We saw a skeleton of the report before it was published.   在报告发表之前，我们看到了他的整体框架。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2685,18 +2674,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>skeleton</t>
+          <t>skeptic</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n. 骨架，框架： something forming a structural framework</t>
+          <t>n. 怀疑者： one who instinctively or habitually doubts, questions, or disagrees with assertions orgenerally accepted conclusions</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Only the charred skeleton of the house remained after the fire.   大火过后整个房子只剩下被烧焦的骨架了。
-We saw a skeleton of the report before it was published.   在报告发表之前，我们看到了他的整体框架。</t>
+          <t>You can either be a skeptic or not, but I believe it anyway.   至于你信不信，我反正信了。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2708,17 +2696,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>skeptic</t>
+          <t>skimp</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 怀疑者： one who instinctively or habitually doubts, questions, or disagrees with assertions orgenerally accepted conclusions</t>
+          <t>adj. 缺乏的，不足的： less plentiful than what is normal, necessary, or desirable
+vi. 节省花费，吝啬： to give insufficient or barely sufficient attention or effort to or funds for</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>You can either be a skeptic or not, but I believe it anyway.   至于你信不信，我反正信了。</t>
+          <t>The dieter complained about skimp meals that were served at the fat farm.  这个节食者抱怨说减肥疗养地的伙食少得可怜。
+We must skimp and save if we are going to afford a vacation this summer.  要是我们这个夏天要出去旅行，那么就得开始节省出一些钱了。</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2730,19 +2720,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>skimp</t>
+          <t>skirmish</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 缺乏的，不足的： less plentiful than what is normal, necessary, or desirable
-vi. 节省花费，吝啬： to give insufficient or barely sufficient attention or effort to or funds for</t>
+          <t>n. 小冲突，争论： a minor or preliminary conflict or dispute</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>The dieter complained about skimp meals that were served at the fat farm.  这个节食者抱怨说减肥疗养地的伙食少得可怜。
-We must skimp and save if we are going to afford a vacation this summer.  要是我们这个夏天要出去旅行，那么就得开始节省出一些钱了。</t>
+          <t>They had a skirmish over the rules before the debate began.  在辩论开始之前他们就规则而吵了起来。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2754,17 +2742,18 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>skirmish</t>
+          <t>skirt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 小冲突，争论： a minor or preliminary conflict or dispute</t>
+          <t>n. 界限，边界： the line or relatively narrow space that marks the outer limit of something
+vt. 绕行，避开： to go around or keep away from in order to avoid danger or discovery</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>They had a skirmish over the rules before the debate began.  在辩论开始之前他们就规则而吵了起来。</t>
+          <t>an old shack on the skirts of the town  城镇边界上的一座老房子</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2776,18 +2765,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>skirt</t>
+          <t>slack</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 界限，边界： the line or relatively narrow space that marks the outer limit of something
-vt. 绕行，避开： to go around or keep away from in order to avoid danger or discovery</t>
+          <t>adj. 松弛的： not tightly fastened, tied, or stretched
+adj. 疏忽的，大意的： failing to give proper care and attention</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>an old shack on the skirts of the town  城镇边界上的一座老房子</t>
+          <t>The rope is too slack.   绳子太松了。
+This building contractor is known mainly for his firm's slack workmanship and slipshod construction.   这个建筑承包商因其手下公司不负责任的粗糙做工和马虎建造的建筑物而闻名。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2799,19 +2789,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>slack</t>
+          <t>slake</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 松弛的： not tightly fastened, tied, or stretched
-adj. 疏忽的，大意的： failing to give proper care and attention</t>
+          <t>vt. 使满足： to satisfy (a craving); quench</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The rope is too slack.   绳子太松了。
-This building contractor is known mainly for his firm's slack workmanship and slipshod construction.   这个建筑承包商因其手下公司不负责任的粗糙做工和马虎建造的建筑物而闻名。</t>
+          <t>Mountain climbing has largely slaked my desire for adventure.   登山很大程度上满足了我对探险的渴望。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2823,45 +2811,45 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>slake</t>
+          <t>slant</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>vt. 使满足： to satisfy (a craving); quench</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Mountain climbing has largely slaked my desire for adventure.   登山很大程度上满足了我对探险的渴望。</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>slant</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
         <is>
           <t>n. （看待问题、思考的）角度，看法： a way of looking at or thinking about something
 adj. 倾斜的： running in a slanting direction
 vt. 歪曲（事实等）： to change so much as to create a wrong impression or alter the meaning of</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>an interesting slant on the problem of underage drinking  在青少年饮酒这个问题上一个有趣的视角
 The computer keyboard has a slightly slant surface so that typing is more comfortable for the wrists.   电脑键盘有一个微小的倾斜角，因此打字不会使手腕感到不适。
 Reporters slanted the truth in order to push a political agenda.   为了推动政治进程，记者们歪曲了事实。</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>slate</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>vt. 列入名单，计划，安排： to put (someone or something) on a list</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>You've been slated for a three o'clock interview.  你的面试被安排在三点。</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2871,17 +2859,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>slate</t>
+          <t>slew</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vt. 列入名单，计划，安排： to put (someone or something) on a list</t>
+          <t>n. 大量，许多： a large amount or number</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>You've been slated for a three o'clock interview.  你的面试被安排在三点。</t>
+          <t>donate a slew of books to the university library  向大学图书馆捐赠了大量的书籍</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2893,32 +2881,10 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>slew</t>
+          <t>slight</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>n. 大量，许多： a large amount or number</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>donate a slew of books to the university library  向大学图书馆捐赠了大量的书籍</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>slight</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 不重要的： deficient in weight, importance
 adj. 轻微的： small in degree
@@ -2926,7 +2892,7 @@
 vt. 忽略，疏忽： to fail to give proper attention to</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>a slight comedy that did nothing to further her career  一个并没有帮助她事业发展的小喜剧
 only a slight chance of success  只有很小的成功概率
@@ -2935,6 +2901,28 @@
 She slighted several major authors in her survey of 20th-century fiction.   她在调查 20 世纪幻想文学时中忽略了几个重要的作家。</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sling</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>vi. 投掷： to send through the air especially with a quick forward motion of the arm</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>slinging stones at the checkpoint  朝着检查站扔石头</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2944,17 +2932,18 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sling</t>
+          <t>slippery</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vi. 投掷： to send through the air especially with a quick forward motion of the arm</t>
+          <t>adj. 光滑的： causing or tending to cause something to slide or fall
+adj. 隐秘的： given to acting in secret and to concealing one's intentions</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>slinging stones at the checkpoint  朝着检查站扔石头</t>
+          <t>The road is slippery after rain, so drive cautiously.   雨后路滑，谨慎驾驶。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2966,18 +2955,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>slippery</t>
+          <t>slipshod</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 光滑的： causing or tending to cause something to slide or fall
-adj. 隐秘的： given to acting in secret and to concealing one's intentions</t>
+          <t>adj. 粗心的，随意的： marked by carelessness or indifference to exactness, precision, andaccuracy</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The road is slippery after rain, so drive cautiously.   雨后路滑，谨慎驾驶。</t>
+          <t>a slipshod piece of research  一项随意的研究
+The hotel had always been run in a slipshod way.   酒 店 总是在以一种随意的状态运营。</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2989,18 +2978,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>slipshod</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 粗心的，随意的： marked by carelessness or indifference to exactness, precision, andaccuracy</t>
+          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person
+adj. 混乱的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>a slipshod piece of research  一项随意的研究
-The hotel had always been run in a slipshod way.   酒 店 总是在以一种随意的状态运营。</t>
+          <t>a sloppy child who always seems to have spilled something on his clothes  一个外表邋遢的小孩子，他的衣服似乎总被沾上了什么东西
+dumped the papers in a sloppy pile on the desk  把纸张随意地叠放在书桌上</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3012,19 +3002,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>sloth</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person
-adj. 混乱的： lacking in order, neatness, and often cleanliness</t>
+          <t>n. 怠惰，懒惰： disinclination to action or labor: indolence</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>a sloppy child who always seems to have spilled something on his clothes  一个外表邋遢的小孩子，他的衣服似乎总被沾上了什么东西
-dumped the papers in a sloppy pile on the desk  把纸张随意地叠放在书桌上</t>
+          <t>Sloth is the mother of poverty.   懒惰是贫穷的原因。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3036,17 +3024,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sloth</t>
+          <t>slouch</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n. 怠惰，懒惰： disinclination to action or labor: indolence</t>
+          <t>n. 懒人： a lazy person
+vt. 缓慢行走： to go or move slowly or reluctantly</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sloth is the mother of poverty.   懒惰是贫穷的原因。</t>
+          <t>is no slouch when it comes to cooking  做起饭来可一点也不懒
+He slouched towards the church as if going to his own funeral.   他缓缓地向教堂走去，仿佛是要去参加自己的葬礼一般。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3058,19 +3048,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>slouch</t>
+          <t>slovenly</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n. 懒人： a lazy person
-vt. 缓慢行走： to go or move slowly or reluctantly</t>
+          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>is no slouch when it comes to cooking  做起饭来可一点也不懒
-He slouched towards the church as if going to his own funeral.   他缓缓地向教堂走去，仿佛是要去参加自己的葬礼一般。</t>
+          <t>For the sake of their image, the band members transformed themselves from clean-cut lads to slovenlyrockers.   为了他们自身的形象，乐队成员从健康向上的青年变成了邋遢的摇滚乐手。</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3082,17 +3070,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>slovenly</t>
+          <t>sluggard</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person</t>
+          <t>n. 懒人： an habitually lazy person</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>For the sake of their image, the band members transformed themselves from clean-cut lads to slovenlyrockers.   为了他们自身的形象，乐队成员从健康向上的青年变成了邋遢的摇滚乐手。</t>
+          <t>The teacher tried to wake up the sluggards who were still sleeping at that late hour.  老 师 尝 试 去 叫 醒那些还在睡觉的懒鬼们。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3104,17 +3092,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>sluggard</t>
+          <t>sluggish</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n. 懒人： an habitually lazy person</t>
+          <t>adj. 缓慢的，迟缓的： markedly slow in movement, flow, or growth
+adj. 迟钝的，反应慢的： slow to respond (as to stimulation or treatment)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The teacher tried to wake up the sluggards who were still sleeping at that late hour.  老 师 尝 试 去 叫 醒那些还在睡觉的懒鬼们。</t>
+          <t>The sluggish pace of the project is worrisome.   项目进展缓慢让人担忧。
+Reptiles are naturally sluggish at low temperatures.  在低温下爬行动物的生理机能自然会趋于迟缓。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3126,19 +3116,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sluggish</t>
+          <t>slumber</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 缓慢的，迟缓的： markedly slow in movement, flow, or growth
-adj. 迟钝的，反应慢的： slow to respond (as to stimulation or treatment)</t>
+          <t>vt. 睡着： to be in a state of sleep</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The sluggish pace of the project is worrisome.   项目进展缓慢让人担忧。
-Reptiles are naturally sluggish at low temperatures.  在低温下爬行动物的生理机能自然会趋于迟缓。</t>
+          <t>She slumbered for hours while the train rolled on.   她在火车行进过程中睡了四个小时。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3150,17 +3138,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>slumber</t>
+          <t>slur</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>vt. 睡着： to be in a state of sleep</t>
+          <t>n. 耻辱： a mark of guilt or disgrace</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>She slumbered for hours while the train rolled on.   她在火车行进过程中睡了四个小时。</t>
+          <t>Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3172,17 +3160,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>slur</t>
+          <t>sly</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 耻辱： a mark of guilt or disgrace</t>
+          <t>adj. 狡猾的： clever or cunning, especially in the practice of deceit.
+adj. 隐秘的，偷偷的： given to acting in secret and to concealing one's intentions</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。</t>
+          <t>The movie pairs a sly, dissembling ex-con with an upstanding, straight-arrow cop.   电影把一个狡猾、善于骗人的出狱犯和正直、坦率的警察搭配在了一起。
+took a sly look at the letter on the table  偷偷地看了一眼桌上的信</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3194,19 +3184,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sly</t>
+          <t>smarmy</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 狡猾的： clever or cunning, especially in the practice of deceit.
-adj. 隐秘的，偷偷的： given to acting in secret and to concealing one's intentions</t>
+          <t>adj. 虚情假意的，过分恭维的： hypocritically, complacently, or effusively earnest</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>The movie pairs a sly, dissembling ex-con with an upstanding, straight-arrow cop.   电影把一个狡猾、善于骗人的出狱犯和正直、坦率的警察搭配在了一起。
-took a sly look at the letter on the table  偷偷地看了一眼桌上的信</t>
+          <t>He is slightly smarmy and eager to impress.   他有点虚伪，急于给人留下印象。</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3218,17 +3206,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>smarmy</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 虚情假意的，过分恭维的： hypocritically, complacently, or effusively earnest</t>
+          <t>adj. 反应敏捷的，聪颖的： characterized by sharp quick thought</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>He is slightly smarmy and eager to impress.   他有点虚伪，急于给人留下印象。</t>
+          <t>a smart child who could do well in school  一个能在学校取得良好成绩的聪明孩子</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3240,17 +3228,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smattering</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 反应敏捷的，聪颖的： characterized by sharp quick thought</t>
+          <t>n. 浅薄的知识： superficialor piecemeal knowledge
+n. 少量： a small scattered number or amount</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>a smart child who could do well in school  一个能在学校取得良好成绩的聪明孩子</t>
+          <t>a smattering of Greek grammar  略懂希腊语语法
+Only a smattering of spectators presented.  只有少数几个观看者出席了。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3262,19 +3252,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>smattering</t>
+          <t>smirk</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. 浅薄的知识： superficialor piecemeal knowledge
-n. 少量： a small scattered number or amount</t>
+          <t>vi. （自鸣得意地）笑： to smile in an affected, often offensively self-satisfied manner</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>a smattering of Greek grammar  略懂希腊语语法
-Only a smattering of spectators presented.  只有少数几个观看者出席了。</t>
+          <t>She tried not to smirk when they announced the winner.  当他们宣布她获得了胜利时，她尽可能地保持不露出笑容。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3286,44 +3274,45 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>smirk</t>
+          <t>smother</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>vi. （自鸣得意地）笑： to smile in an affected, often offensively self-satisfied manner</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>She tried not to smirk when they announced the winner.  当他们宣布她获得了胜利时，她尽可能地保持不露出笑容。</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>smother</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 使窒息： to be or cause to be killed by lack of breathable air
 vt. 抑制（表达、说出），压制： to refrain from openly showing or uttering</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Children should never be leftin cars alone because they could become trapped and smothered.   小 孩 子不应该被单独留在车中，因为他们很容易因而被困并且窒息死亡。
 He quickly smothered his inappropriate laughter at the funeral ceremony.   他很快就控制住了自己在葬礼上不适当的笑声。
 Management smothered the true facts of the case.   管理层隐瞒了案件的真相。</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>smug</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>adj. 自大的，自鸣得意的： having too high an opinion of oneself
+adj. 整洁的，有序的： being clean and in good order</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>The winner was so smug that he lost the support of the crowd.   胜利者过于自大，以至于失去了群众的支持。</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3333,18 +3322,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>smug</t>
+          <t>smuggling</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>adj. 自大的，自鸣得意的： having too high an opinion of oneself
-adj. 整洁的，有序的： being clean and in good order</t>
+          <t>n. 走私，私运： secret importation or exportation contrary to the law and especially without payingduties imposed by law</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The winner was so smug that he lost the support of the crowd.   胜利者过于自大，以至于失去了群众的支持。</t>
+          <t>He was arrested for smuggling drugs into the country.   他因为向境内走私毒品而被逮捕。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3356,38 +3344,16 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>smuggling</t>
+          <t>snare</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
-        <is>
-          <t>n. 走私，私运： secret importation or exportation contrary to the law and especially without payingduties imposed by law</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>He was arrested for smuggling drugs into the country.   他因为向境内走私毒品而被逮捕。</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>snare</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
         <is>
           <t>n. 无法逃脱的困境： something that catches and holds
 vt. 捕捉： to capture by or as if by use of a snare</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Someday you'll find that your lies are a snare from which you can't escape.  总有一天你会发现，你所说过的谎话都会变成你无法逃脱的困境。
 caught in the snare of drug addiction  处于吸毒上瘾的困境之中
@@ -3395,31 +3361,53 @@
 The car salesmansuccessfully snared three potential customers.  汽车销售员成功地让三个潜在的客户上钩了。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>snarl</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>v. 纠缠，纠结： to twist together into a usually confused mass
 vi. 咆哮，怒吼： to give vent to anger in surly language</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>You'll be awfully sorry if you snarl your fishing line.   要是你把渔网给缠在一起，你肯定会非常后悔的。
 Thenew regulation has succeeded in nothing but snarling up rush-hour traffic throughout the city.   新 的 政 策 只 将 全城高峰时期的交通变得更为复杂难解。
 She snarled at me after I kept badgering her with questions.   在我不断用问题骚扰她之后，她终于忍不住爆发了。</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sneer</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vt. （轻蔑地）嘲笑： to speak in a scornful, contemptuous, or derisive manner</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>They would invariably sneer every time they passed the hapless nerds.   每次经过那个不幸的书呆子身边时，他们总是会报以不变的嘲笑。</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3429,17 +3417,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sneer</t>
+          <t>snobbish</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vt. （轻蔑地）嘲笑： to speak in a scornful, contemptuous, or derisive manner</t>
+          <t>adj. 谄上傲下的，自大的： being or characteristic of a person who has an offensive air of superiorityand tends to ignore or disdain anyone regarded as inferior</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>They would invariably sneer every time they passed the hapless nerds.   每次经过那个不幸的书呆子身边时，他们总是会报以不变的嘲笑。</t>
+          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3451,17 +3439,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>snobbish</t>
+          <t>snub</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 谄上傲下的，自大的： being or characteristic of a person who has an offensive air of superiorityand tends to ignore or disdain anyone regarded as inferior</t>
+          <t>v. 轻视，不理睬： to treat with contempt or neglect</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常</t>
+          <t>The snob in town always snubbed anyone she thought was beneath her.   镇上那个自命不凡的人总是对那些她认为不如她的人不屑一顾。</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3473,17 +3461,18 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>snub</t>
+          <t>soak</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>v. 轻视，不理睬： to treat with contempt or neglect</t>
+          <t>vt. 使…湿透： to make thoroughly wet or saturated by or as if by placing in liquid</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>The snob in town always snubbed anyone she thought was beneath her.   镇上那个自命不凡的人总是对那些她认为不如她的人不屑一顾。</t>
+          <t>That downpour soaked my hair, and now I look like a sight.   那场大雨把我的头发淋湿了，所以我现在看起来格外滑稽。
+We ran for home as soon as the rain started, but our clothes still ended up soaked.   我 们 一 发 觉下雨就开始往家里跑，但我们的衣服还是湿透了。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3495,40 +3484,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>soak</t>
+          <t>sober</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
-        <is>
-          <t>vt. 使…湿透： to make thoroughly wet or saturated by or as if by placing in liquid</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>That downpour soaked my hair, and now I look like a sight.   那场大雨把我的头发淋湿了，所以我现在看起来格外滑稽。
-We ran for home as soon as the rain started, but our clothes still ended up soaked.   我 们 一 发 觉下雨就开始往家里跑，但我们的衣服还是湿透了。</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>sober</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 严肃的： marked by seriousness, gravity, or solemnity of conduct or character
 adj. 节制的： given to or marked by restraint in the satisfaction of one's appetites
 adj. 有理有据的： based on sound reasoning or information</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>She made a sober reply to what was only a teasing comment.   她很严肃地回复了那个恶搞的评论。
 Illness is a sober reminder of our mortality.  疾病是死亡给我们发出的严肃警告。
@@ -3536,6 +3502,30 @@
 a sober assessment of the situation  关于局势有理有据的分析</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sodden</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>adj. 湿透的： containing, covered with, or thoroughly penetrated by water
+vt. 使…湿透： to wet thoroughly with liquid</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>We stripped off our sodden clothes and wrung them dry.  我们脱下湿透了的衣服并将它们拧干。
+Soldiers' boots were soddened by endless hours in muddy trenches.   长时间身处泥泞的战壕使得士兵的靴子湿透了。</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3545,19 +3535,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sodden</t>
+          <t>solace</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 湿透的： containing, covered with, or thoroughly penetrated by water
-vt. 使…湿透： to wet thoroughly with liquid</t>
+          <t>n. 安慰： comfort in sorrow, misfortune, or distress
+vt. 安慰，安抚： to comfort, cheer, or console, as in trouble or sorrow</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>We stripped off our sodden clothes and wrung them dry.  我们脱下湿透了的衣服并将它们拧干。
-Soldiers' boots were soddened by endless hours in muddy trenches.   长时间身处泥泞的战壕使得士兵的靴子湿透了。</t>
+          <t>The kind words brought a little solace to the grieving widow.   这些同情的话语给痛苦的寡妇带来了些许安慰。
+I did their my to solace those bereaved children.   我尽力去安抚那些失去双亲的孩子们。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3569,19 +3559,18 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>solace</t>
+          <t>solder</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 安慰： comfort in sorrow, misfortune, or distress
-vt. 安慰，安抚： to comfort, cheer, or console, as in trouble or sorrow</t>
+          <t>v. 连接，联合： to join or unite</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>The kind words brought a little solace to the grieving widow.   这些同情的话语给痛苦的寡妇带来了些许安慰。
-I did their my to solace those bereaved children.   我尽力去安抚那些失去双亲的孩子们。</t>
+          <t>Wires are soldered onto the circuit board.   电线被焊接在电路板上。
+The agreement soldered the factionsinto an alliance.   两个派系因这份协议而结成同盟。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3593,18 +3582,18 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>solder</t>
+          <t>solemnity</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>v. 连接，联合： to join or unite</t>
+          <t>n. 严肃： the quality or condition of being solemn</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wires are soldered onto the circuit board.   电线被焊接在电路板上。
-The agreement soldered the factionsinto an alliance.   两个派系因这份协议而结成同盟。</t>
+          <t>Solemnity is a trick of the body to hide the fault of the mind.   一本正经的态度，是肉体为了掩饰精神上的缺陷而耍的花招。
+The coronation ceremony requires absolute solemnity.  加冕典礼需要绝对的庄严肃穆。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3616,18 +3605,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>solemnity</t>
+          <t>solicitous</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. 严肃： the quality or condition of being solemn</t>
+          <t>adj. 为他人操心的，体谅他人的： given to or made with heedful anticipation of the needs andhappiness of others
+adj. 迫切的，渴望的： showing urgent desire or interest</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Solemnity is a trick of the body to hide the fault of the mind.   一本正经的态度，是肉体为了掩饰精神上的缺陷而耍的花招。
-The coronation ceremony requires absolute solemnity.  加冕典礼需要绝对的庄严肃穆。</t>
+          <t xml:space="preserve">The solicitous husband had already cleaned the house and cooked dinner by the time his wife returnedhome from work.   这个十分体谅妻子的好丈夫在他妻子回家之前就把家里清理干净，还把晚餐都做好了。
+The family is solicitous to put this whole unfortunate affair behind them and to move on with their lives.  </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3639,47 +3629,45 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>solicitous</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
-        <is>
-          <t>adj. 为他人操心的，体谅他人的： given to or made with heedful anticipation of the needs andhappiness of others
-adj. 迫切的，渴望的： showing urgent desire or interest</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The solicitous husband had already cleaned the house and cooked dinner by the time his wife returnedhome from work.   这个十分体谅妻子的好丈夫在他妻子回家之前就把家里清理干净，还把晚餐都做好了。
-The family is solicitous to put this whole unfortunate affair behind them and to move on with their lives.  </t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>solid</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
         <is>
           <t>adj. 固态的，坚固的： having a consistency that does not easily yield to pressure
 adj. 有理有据的： based on sound reasoning or information
 adj. 坚定的，不迟疑的： not showing weakness or uncertainty</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>The ice cream is too solid to scoop right now.   冰淇淋现在太硬了，根本舀不动。
 the only solid conclusion that the jury could have reached  陪审团唯一可能做出的合理结论
 Some people see a solid handshake as a sign of strong character.   有人认为握手毫不迟疑的人有着很强势的性格。</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>soliloquy</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>n. （尤指自言自语的）独白： a dramatic or literary form of discourse in which a character talks to himselfor herself or reveals his or her thoughts without addressing a listener</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A soliloquy always reveals the character’s thoughts and feeling.   一段独白经常反映出人物的思想和感情。</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3689,17 +3677,18 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>soliloquy</t>
+          <t>solitude</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. （尤指自言自语的）独白： a dramatic or literary form of discourse in which a character talks to himselfor herself or reveals his or her thoughts without addressing a listener</t>
+          <t>n. 孤独，避世： the quality or state of being alone or remote from society</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A soliloquy always reveals the character’s thoughts and feeling.   一段独白经常反映出人物的思想和感情。</t>
+          <t>He sought the kind of solitude where his thoughts would be his only companions.   他在寻找一种孤独感，只有他的思想陪伴着他。
+She wished to work on her novel in solitude.   她想一个人安静地完成小说。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3711,18 +3700,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>solitude</t>
+          <t>solvent</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 孤独，避世： the quality or state of being alone or remote from society</t>
+          <t>adj. 有偿付能力的： able to pay all legal debts
+n. 溶剂： a substance in which another substance is dissolved, forming a solution</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>He sought the kind of solitude where his thoughts would be his only companions.   他在寻找一种孤独感，只有他的思想陪伴着他。
-She wished to work on her novel in solitude.   她想一个人安静地完成小说。</t>
+          <t xml:space="preserve">They're going to have to prove that the company is now solvent.   接下来他们必须要证明公司的偿贷能力。
+Some organic solvents, such as benzene, pyridine, furan, are poisonous to human’s reproductive system.  </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3734,19 +3724,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>solvent</t>
+          <t>somatic</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>adj. 有偿付能力的： able to pay all legal debts
-n. 溶剂： a substance in which another substance is dissolved, forming a solution</t>
+          <t>adj. 肉体的： of the body, especially as distinguished from a body part, the mind, or the environment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">They're going to have to prove that the company is now solvent.   接下来他们必须要证明公司的偿贷能力。
-Some organic solvents, such as benzene, pyridine, furan, are poisonous to human’s reproductive system.  </t>
+          <t>a somatic disorder that was once thought to be “all in the patient’s head” 曾被认为“全是病人头脑中的问题”的生理机能紊乱</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3758,17 +3746,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>somatic</t>
+          <t>somber</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 肉体的： of the body, especially as distinguished from a body part, the mind, or the environment</t>
+          <t>adj. 昏暗的，无光的： so shaded as to be dark and gloomy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>a somatic disorder that was once thought to be “all in the patient’s head” 曾被认为“全是病人头脑中的问题”的生理机能紊乱</t>
+          <t xml:space="preserve">The prison's somber interrogation room has the desired effect of striking fear and despair into the prisoner.  </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3780,17 +3768,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>somber</t>
+          <t>somnolence</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 昏暗的，无光的： so shaded as to be dark and gloomy</t>
+          <t>n. 瞌睡，嗜睡： the quality or state of desiring or needing sleep</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">The prison's somber interrogation room has the desired effect of striking fear and despair into the prisoner.  </t>
+          <t>Somnolence is likely to be the most typical reaction to this novel.  读这部小说最典型的感受就是想睡觉。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3802,17 +3790,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>somnolence</t>
+          <t>sonnet</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 瞌睡，嗜睡： the quality or state of desiring or needing sleep</t>
+          <t>n. 十四行诗： a 14-line verse form usually having one of several conventional rhyme schemes</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Somnolence is likely to be the most typical reaction to this novel.  读这部小说最典型的感受就是想睡觉。</t>
+          <t>a sonnet that celebrates love  一首歌颂爱情的十四行诗</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3824,17 +3812,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sonnet</t>
+          <t>soothe</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 十四行诗： a 14-line verse form usually having one of several conventional rhyme schemes</t>
+          <t>vt. 带来慰藉，安慰： to bring comfort, solace, or reassurance to
+vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>a sonnet that celebrates love  一首歌颂爱情的十四行诗</t>
+          <t>There seemed to be no words sufficient to soothethe widow.  任何话语好像都不足以安慰这个寡妇。
+He took her in his arms and soothed her.   他把她抱在怀中以让她镇静下来。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3846,47 +3836,45 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>soothe</t>
+          <t>sop</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>vt. 带来慰藉，安慰： to bring comfort, solace, or reassurance to
-vt. 使镇静，使安心： to free from distress or disturbance</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>There seemed to be no words sufficient to soothethe widow.  任何话语好像都不足以安慰这个寡妇。
-He took her in his arms and soothed her.   他把她抱在怀中以让她镇静下来。</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>sop</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
         <is>
           <t>n. 安慰物： something yielded to placate or soothe
 n. 贿赂，回扣： something given or promised in order to improperly influence a person's conductor decision
 vt. 浸湿，湿透： to wet thoroughly</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to provide with the salary raise as a sop  提高工资作为安慰
 As a sop to the teachers' union for supporting his reelection campaign, the mayor promised to push for theabolition of the residency requirement.   市长答应推动废除获得绿卡的限制条件，以此作为换取选举中教师联盟支持的条件。
 My book fell in the swimming pool and was thoroughly sopped before I could fish it out.   我 的 书 掉 进 了 游泳池，在我把它捞出来之前已经彻底湿透了。</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>sophism</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>n. 假推理，诡辩： deceptive or fallacious argumentation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Political selection is more dependent on sophism and less on economic literacy.   政治选举更多的是依靠诡辩，而非简练的文笔。</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3896,44 +3884,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sophism</t>
+          <t>sophisticated</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>n. 假推理，诡辩： deceptive or fallacious argumentation</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Political selection is more dependent on sophism and less on economic literacy.   政治选举更多的是依靠诡辩，而非简练的文笔。</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>sophisticated</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 精明的，老于世故的： having acquired worldly knowledge or refinement; lacking naturalsimplicity or naiveté
 adj. 复杂的： very complex or complicated</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>On the train I met a surprisingly sophisticated and widely traveled child.   在火车上我见到了一个老练得让人惊讶的、见多识广的孩子。
 a very sophisticated machine that is a marvel of modern design  一个十分复杂的机器，是现代设计的最高成就</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_7.xlsx
+++ b/result/生词本导入模版_7.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,67 +434,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>salutary</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>adj. 有益健康的： beneficial, promoting health</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>a salutary warning  善意的警告</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>salutary</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adj. 有益健康的： beneficial, promoting health</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a salutary warning  善意的警告</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>salutation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>n. 致敬，打招呼（表示欢迎和礼貌）： a polite expression of greeting or goodwill
 n. 表扬： a formal expression praise</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>The veteran stepped forward, raising his hand in salutation.   老兵向前一步，举起手致敬。
 The speaker introduced the evening's honored guest with a lavish salutation.   主持人用大量表扬的话介绍了今晚的嘉宾。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>salvage</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -492,17 +504,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>salve</t>
+          <t>salvage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>v. 减轻，缓解： quiet, assuage</t>
+          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
+          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sanctify</t>
+          <t>salve</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vt. 使神圣，敬为神： to make holy</t>
+          <t>v. 减轻，缓解： quiet, assuage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
+          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sanctimonious</t>
+          <t>sanctify</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
+          <t>vt. 使神圣，敬为神： to make holy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
+          <t>The Constitution sanctified the rights of the people.  宪法认为人权是至高无上的。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -558,42 +570,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>sanctimonious</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. 假装虔诚的： hypocritically pious or devout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a sickening sanctimonious smile  令人厌恶的伪善的笑容</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>sanction</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>v. 批准，同意，认可： to make valid or binding usually by a formal procedure (as ratification)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>The President sanctioned covert operations.   总统批准了秘密行动
 The administration will sanctionalmost any field trip with educational value.   基本上任何有教育意义的实地考察都可以得到批准。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sanctuary</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>n. 避难所： a place of refuge and protection</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>In earlier times a criminal could use a church as a sanctuary.   在早期，犯罪分子可以将教堂当作避难所。</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -603,17 +615,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>sanctuary</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vt. 磨光： to make smooth by friction</t>
+          <t>n. 避难所： a place of refuge and protection</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Be sure to sand before you paint the shelf.  在上漆之前一定要先磨光。</t>
+          <t>In earlier times a criminal could use a church as a sanctuary.   在早期，犯罪分子可以将教堂当作避难所。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -625,43 +637,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vt. 磨光： to make smooth by friction</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Be sure to sand before you paint the shelf.  在上漆之前一定要先磨光。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>sanguine</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 乐观的，确信的： having or showing a mind free from doubt
 adj. 面色红润的： having a healthy reddish skin tone</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>I'm reasonably sanguine about the adoption of the latest proposal.   我非常看好最新的那项提议获得通过。
 a baby with a sanguine complexion is more likely to leave the hospital early than a sickly-looking one  面色红润的新生儿比病怏怏的能更早出院</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sanitary</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>adj. 健康的，清洁的： of or relating to health</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sanitary measures  保健的手段</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -671,17 +683,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sap</t>
+          <t>sanitary</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
+          <t>adj. 健康的，清洁的： of or relating to health</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
+          <t>sanitary measures  保健的手段</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -693,17 +705,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sapient</t>
+          <t>sap</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
+          <t>vt. 削弱： to weaken or exhaust the energy or vitality of</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
+          <t>Weeks of hard work had sapped hum and left him exhausted.   连续几周辛苦工作让他筋疲力尽。</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -715,17 +727,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sarcasm</t>
+          <t>sapient</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
+          <t>adj. 聪明的，有洞察力的： having or showing deep understanding and intelligent application ofknowledge</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a voice full of sarcasm  充满轻蔑的言论</t>
+          <t>a man who is always good for valuable insights and some sapient advice  一个以见解深刻、建议明智著称的男人</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -737,17 +749,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sartorial</t>
+          <t>sarcasm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
+          <t>n. 讽刺，轻蔑： a sharp and often satirical or ironic utterance designed to cut or give pain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>poor sartorial taste  很烂的穿衣品位</t>
+          <t>a voice full of sarcasm  充满轻蔑的言论</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -759,17 +771,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sate</t>
+          <t>sartorial</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
+          <t>adj. 裁缝匠的，裁缝的： of or relating to a tailor or tailored clothes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
+          <t>poor sartorial taste  很烂的穿衣品位</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -781,17 +793,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>satiate</t>
+          <t>sate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
+          <t>vt. 使饱足，充分满足： to glut; to satisfy (an appetite) fully</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
+          <t>The information sated her curiosity.   这个消息满足了她的好奇心。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -803,17 +815,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>satire</t>
+          <t>satiate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
+          <t>v./adj. 饱足，过分满足： to satisfy fully or to excess</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
+          <t>A long drink of water satiated my thirst.   一顿痛饮之后我的口渴得到了缓解</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -825,17 +837,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>satirize</t>
+          <t>satire</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
+          <t>n. 讽刺诗，讽剌文学： a literary work holding up human vices and follies to ridicule or scorn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
+          <t>a satire about the music industry in which a handsome but untalented youth is turned into a rock star  一部关于一个长得帅却没才华的年轻人如何被打造成一个摇滚巨星的讽刺文学作品</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -847,17 +859,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>saturate</t>
+          <t>satirize</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
+          <t>vt. 讽刺： to ridicule or attack by means of satire</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Saturate the sponge with water.   将海绵浸透</t>
+          <t>The movie satirizes contemporary life.  这部电影讽刺当下生活。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -869,43 +881,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>saturate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>v./adj. 使饱和，浸透： to wet thoroughly with liquid</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Saturate the sponge with water.   将海绵浸透</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>saturnine</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>adj. 忧郁的，阴沉的： causing or marked by an atmosphere lacking in cheer
 adj. 讥讽的： having a sardonic aspect</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>The men awaiting interrogation by the police shared a saturnine silence.   等待警察审问的人们脸色阴沉，沉默不语。
 a saturnine smile  讥讽的笑容</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>saunter</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>vi. 闲逛，漫步： to travel by foot for exercise or pleasure</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>sauntered slowly down the street  在街上闲逛</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -915,17 +927,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>savant</t>
+          <t>saunter</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 博学之士，学者： a person of learning</t>
+          <t>vi. 闲逛，漫步： to travel by foot for exercise or pleasure</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a savant in the field of medical ethics  医学伦理方面的专家</t>
+          <t>sauntered slowly down the street  在街上闲逛</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -937,39 +949,43 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>savant</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n. 博学之士，学者： a person of learning</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>a savant in the field of medical ethics  医学伦理方面的专家</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>savory</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. 口感好的，味道好的： appetizing to the taste or smell
 adj. 令人愉悦的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>cedar is one of the most savory of all woods  雪松是所有树木中味道最好闻的
 having to fire someone was not a task that the manager found at all savory  经理发现不得不开除某人是件非常不讨好的事</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>savvy</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -979,19 +995,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>scads</t>
+          <t>savvy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 许多，大量： a large number or quantity</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
-        </is>
-      </c>
+          <t>n. 老练，机智： knowledge gained by actually doing or living through something</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1001,17 +1013,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>scant</t>
+          <t>scads</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
+          <t>n. 许多，大量： a large number or quantity</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
+          <t>scads of people showed up for the party  参加派对的人们蜂拥而至</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1023,17 +1035,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>scathing</t>
+          <t>scant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
+          <t>adj. 不足的，缺乏的： barely or scarcely sufficient</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a scathing review of the book  尖刻的书评</t>
+          <t>jobs for teenagers were scant that summer  那年暑假适合青少年们做的工作很少</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1045,17 +1057,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>schism</t>
+          <t>scathing</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>n. 不一致： a lack of agreement or harmony</t>
+          <t>adj. 尖酸刻薄的： marked by the use of wit that is intended to cause hurt feelings</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a schism between political parties  党派间的冲突</t>
+          <t>a scathing review of the book  尖刻的书评</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1067,42 +1079,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>schism</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n. 不一致： a lack of agreement or harmony</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>a schism between political parties  党派间的冲突</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>scintillate</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vi. 闪耀： to emit sparks</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>diamond ring scintillated in the sunlight  钻戒在阳光下闪闪发光
 a scintillating conversation</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>scion</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. 子孙： descendant, child</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>scion of a railroad empire  铁路大王的后代</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1112,17 +1124,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>scission</t>
+          <t>scion</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 切断，分离，分裂： a division or split in a group or union: schism</t>
+          <t>n. 子孙： descendant, child</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The scission of the labor union will compromise the workers' bargaining power  工 会 内 部的 分 裂会 削弱工人讨价的力量</t>
+          <t>scion of a railroad empire  铁路大王的后代</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1134,43 +1146,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>scission</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>n. 切断，分离，分裂： a division or split in a group or union: schism</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The scission of the labor union will compromise the workers' bargaining power  工 会 内 部的 分 裂会 削弱工人讨价的力量</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>scoff</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vt. 嘲笑： to treat or address with derision: mock
 v. 狼吞虎咽： to swallow or eat greedily</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>scoffed at the idea  对这个提议不屑一顾
 scoffed dinner before running off to the basketball game  风卷残云般把晚饭消灭了，就直奔向篮球场</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>scorch</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>vt. 炙烤，烘干： to burn on the surface; to make dry</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>scorching sun  火辣辣的太阳</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1180,17 +1192,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>scorn</t>
+          <t>scorch</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vt. 轻蔑，鄙视，不屑： reject or dismiss as contemptible or unworthy</t>
+          <t>vt. 炙烤，烘干： to burn on the surface; to make dry</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>They were scorned as fanatics.   他们被指责为狂热分子。</t>
+          <t>scorching sun  火辣辣的太阳</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1202,17 +1214,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>scotch</t>
+          <t>scorn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 停止： to put an abrupt end to</t>
+          <t>vt. 轻蔑，鄙视，不屑： reject or dismiss as contemptible or unworthy</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The prime minister scotched the rumors of her illness.   首相出面澄清了关于她死亡的谣言。</t>
+          <t>They were scorned as fanatics.   他们被指责为狂热分子。</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1224,38 +1236,38 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>scotch</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>vt. 停止： to put an abrupt end to</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The prime minister scotched the rumors of her illness.   首相出面澄清了关于她死亡的谣言。</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>scour</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>vt. 用力擦洗： to clean, polish, or wash by scrubbing vigorously
 vt. 搜查： to look through (as a place) carefully or thoroughly in an effort to find or discoversomething</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>scowl</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>vi. 皱眉（表现出不高兴）： to contract the brow in an expression of displeasure</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>scowled down at the misbehaving child  对淘气的孩子皱起了眉</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1265,17 +1277,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>scrappy</t>
+          <t>scowl</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 好斗的，好吵架的： having an aggressive and determined spirit，quarrelsome</t>
+          <t>vi. 皱眉（表现出不高兴）： to contract the brow in an expression of displeasure</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>She was a scrappy girl despite—or, perhaps, because of—her small size.  这个妹子好打斗，但是身材娇小，不过这很可能是原因</t>
+          <t>scowled down at the misbehaving child  对淘气的孩子皱起了眉</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1287,45 +1299,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>scrappy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>adj. 好斗的，好吵架的： having an aggressive and determined spirit，quarrelsome</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>She was a scrappy girl despite—or, perhaps, because of—her small size.  这个妹子好打斗，但是身材娇小，不过这很可能是原因</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>scrap</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>n. 废料，废物： discarded or useless material
 vt. 抛弃： to get rid of as useless or unwanted
 v. 终止，放弃原计划： to put an end to (something planned or previously agreed to)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>The rest of this stuff is just scrap, so sweep it up and throw it away.   剩下的这堆东西都是没用的，把它们打扫一下就扔了吧。
 We've decided to scrap the first car.   我们决定丢弃第一辆车。
 We scrapped our plans to go to Paris, and set out the next day for Prague.  我们取消了去巴黎的计划，第二天启程奔赴布拉格。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>scrawl</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>vt. 乱涂，潦草地写： to write or draw awkwardly, hastily, or carelessly</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>scrawled a quick note, stuck it in their mailbox, and hurried off  草草写了张便条，塞进他们的信箱然后匆匆跑了</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1335,17 +1347,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>scribble</t>
+          <t>scrawl</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vt. 潦草地书写，乱写： to cover with scribbles, doodles, or meaningless marks</t>
+          <t>vt. 乱涂，潦草地写： to write or draw awkwardly, hastily, or carelessly</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Students scribbled furiously as the teacher lectured.  老师一边讲，学生们一边狂抄笔记。</t>
+          <t>scrawled a quick note, stuck it in their mailbox, and hurried off  草草写了张便条，塞进他们的信箱然后匆匆跑了</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1357,43 +1369,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>scribble</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>vt. 潦草地书写，乱写： to cover with scribbles, doodles, or meaningless marks</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Students scribbled furiously as the teacher lectured.  老师一边讲，学生们一边狂抄笔记。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>scrupulous</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 正直的： guided by or in accordance with one's sense of right and wrong; principled
 adj. 一丝不苟的： taking, showing, or involving great care and effort</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Less scrupulous companies find ways to evade the law.  道德程度略低的公司钻法律的空子。
 The task requires scrupulous attention to detail.  这项任务需要对细节一丝不苟。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>scrutable</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>adj. 可以理解的： capable of being understood through study and observation; comprehensible.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Her machinations and motives are all too scrutable to us who know her.   她的阴谋和动机对于了解她的我们来说非常昭然若揭</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1403,17 +1415,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>scrutinize</t>
+          <t>scrutable</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vt. 仔细检查： to examine or observe with great care</t>
+          <t>adj. 可以理解的： capable of being understood through study and observation; comprehensible.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>I closely scrutinized my opponent's every move.  我仔细注意着对手的每一个举动。</t>
+          <t>Her machinations and motives are all too scrutable to us who know her.   她的阴谋和动机对于了解她的我们来说非常昭然若揭</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1425,43 +1437,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>scrutinize</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vt. 仔细检查： to examine or observe with great care</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>I closely scrutinized my opponent's every move.  我仔细注意着对手的每一个举动。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>scuff</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>vt. 磨损： to become scratched, chipped, or roughened by wear
 v. 脚步拖沓： to move heavily or clumsily</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>a countertop that won't scuff  一块不易磨损的厨房台面
 The miners scuffed past in heavy boots.   矿工们脚着厚重的靴子，步履蹒跚。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>scurrilous</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1471,17 +1483,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>scurvy</t>
+          <t>scurrilous</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
+          <t>adj. 说粗话的： given to the use of vulgar, coarse, or abusive language</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
+          <t>scurrilous attacks on the senator  对参议院粗俗的攻击</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1493,17 +1505,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>seamy</t>
+          <t>scurvy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 肮脏的，堕落的： sordid; base</t>
+          <t>adj. 下流，让人鄙视的： mean; contemptible</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>the seamy side of urban life  城市生活的肮脏面</t>
+          <t>She was beset by a whole scurvy swarm of con artists.   她被一群下流的骗子艺术家蜂拥围攻。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1515,17 +1527,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>secluded</t>
+          <t>seamy</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
+          <t>adj. 肮脏的，堕落的： sordid; base</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>secluded monks  隐居的僧人</t>
+          <t>the seamy side of urban life  城市生活的肮脏面</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1537,40 +1549,40 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>secluded</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>adj. 隐僻的，隐蔽的： screened or hidden from view</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>secluded monks  隐居的僧人</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>secrete</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>vt. 隐藏： to conceal in a hiding place; cache
 vt. 分泌： to generate and separate (a substance) from cells or bodily fluids</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>The police found the weapon secreted under the driver's seat of the getaway car.   警方在逃逸车辆驾驶座下发现了隐藏的武器。</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sedate</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1582,17 +1594,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sedentary</t>
+          <t>sedate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 固定不动的： not migratory: settled</t>
+          <t>adj. 淡定的，安静的： free from emotional or mental agitation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a sedentary lifestyle  很宅的生活方式</t>
+          <t>She remained sedate under pressure.  她在压力下仍保持镇静。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1604,17 +1616,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>seduce</t>
+          <t>sedentary</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
+          <t>adj. 固定不动的： not migratory: settled</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
+          <t>a sedentary lifestyle  很宅的生活方式</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1626,17 +1638,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sedulous</t>
+          <t>seduce</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
+          <t>vt. 劝说（使不忠，使不服从），诱…误入歧途： to attract or persuade to disobedience or disloyalty</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>a sedulous student  一个勤奋地学生</t>
+          <t>The other firm seduced him with a better offer.   另一家公司用更高的待遇想挖他墙脚。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1648,17 +1660,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>seemly</t>
+          <t>sedulous</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
+          <t>adj. 勤奋认真的：involving or accomplished with careful perseverance</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
+          <t>a sedulous student  一个勤奋地学生</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1670,17 +1682,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>segment</t>
+          <t>seemly</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vt./n. 分割，部分： to separate into segments</t>
+          <t>adv. 得体的，遵守礼节的： following the established traditions of refined society and good taste</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
+          <t>a young lady of seemly appearance, robust health, and keen intelligence  一个打扮得体、身体健康、头脑敏锐的姑娘</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1692,66 +1704,66 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>segment</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>vt./n. 分割，部分： to separate into segments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>I think I lost one segment of this model kit.  这套模型的一个零件我找不到了。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>seminal</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 有发展性的： containing or contributing the seeds of later development
 adj. 创新的： of, relating to, or having the power to originate; creative</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>a seminal novel  新颖的小说</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>sensation</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 感觉，知觉： a perception associated with stimulation of a sense organ or with a specific bodycondition
 n. 轰动事件： a state of intense public interest and excitement</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>We felt just the smallest sensation of warmth when we leaned against the radiator.   当我们靠着取暖器的时候，我们也仅仅感到了一点点的温度。
 the rookie hitting sensation of the American League  这个菜鸟的表现轰动了整个全美大联盟</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>sensitive</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1761,17 +1773,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sentinel</t>
+          <t>sensitive</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
+          <t>adj. 敏感的： susceptible to the attitudes, feelings, or circumstances of others</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
+          <t>he's very sensitive to the sun and will burn if he's outside for any amount of time  他的皮肤对日光非常敏感，在外时间长了就会烧灼</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,17 +1795,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sepulchral</t>
+          <t>sentinel</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
+          <t>n. 哨兵，看守： a person or group that watches over someone or something</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
+          <t>a lone sentinel kept watch over the fort  一个哨兵看守着碉堡</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,15 +1817,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>septic</t>
+          <t>sepulchral</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>adj.阴沉的，丧葬的： causing or marked by an atmosphere lacking in cheer; funereal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>the decrepit mansion had a sepulchral tone that gave everybody a chill  破旧的公馆有着一种坟墓的气息，让人皆为之一颤</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1823,12 +1839,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sequela</t>
+          <t>septic</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 结果： a secondary consequence or result</t>
+          <t>adj. 腐败的，感染的： of, relating to, or causing putrefaction</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1841,43 +1857,39 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>sequela</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 结果： a secondary consequence or result</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>sequester</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>vt. 使隔绝，分离： to set apart: segregate
 vt. 使隐退： to cause to withdraw into seclusion</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>sequester a jury  让陪审团分开讨论
 She was sequestered in her room.   她深居简出。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>sere</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>adj. 干枯的，凋萎的： being dried and withered</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>a sere region that can't support agriculture  一片贫瘠不能发展农业的地区</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1887,17 +1899,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>serendipity</t>
+          <t>sere</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n. 意外发现珍奇(或称心)事物的本领： the faculty of making fortunate discoveries by accident</t>
+          <t>adj. 干枯的，凋萎的： being dried and withered</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>They found each other by pure serendipity.  他俩的相识属于缘分天注定。</t>
+          <t>a sere region that can't support agriculture  一片贫瘠不能发展农业的地区</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1909,43 +1921,43 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>serendipity</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n. 意外发现珍奇(或称心)事物的本领： the faculty of making fortunate discoveries by accident</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>They found each other by pure serendipity.  他俩的相识属于缘分天注定。</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>serene</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj. 安静的： free from disturbing noise or uproar
 adj. 稳重的，镇静的： unaffected by disturbance; calm and unruffled</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a serene vacation spot  一处宁谧的度假胜地
 a serene man who was everyone's source of support  一个沉着镇静的男人，他是所有人的精神支柱</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>sermon</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1955,17 +1967,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>serpentine</t>
+          <t>sermon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 弯曲的： winding or turning one way and another</t>
+          <t>n. 布道，说教： public speech usually by a member of the clergy for the purpose of giving moralguidance or uplift</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
+          <t>sermon whose message was that we should love our neighbors as much as we love ourselves  主 题 是教导我们要像爱自己一样爱邻居的一次布道</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1977,17 +1989,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>serrate</t>
+          <t>serpentine</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 锯齿状的： notched or toothed on the edge</t>
+          <t>adj. 弯曲的： winding or turning one way and another</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>a serrate leaf  锯齿状的叶片</t>
+          <t>the country inn lies at the end of a rather serpentine road  乡村小酒吧坐落在一条非常蜿蜒的道路的尽头</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1999,17 +2011,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>serried</t>
+          <t>serrate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 密集的： having little space between items or parts</t>
+          <t>adj. 锯齿状的： notched or toothed on the edge</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
+          <t>a serrate leaf  锯齿状的叶片</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2021,17 +2033,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>servile</t>
+          <t>serried</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
+          <t>adj. 密集的： having little space between items or parts</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
+          <t>Flowers came up every spring in their serried ranks.  大量的鲜花在春季盛开。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2043,11 +2055,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+          <t>servile</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 低下的，卑屈的： meanly or cravenly submissive: abject</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>had always maintained a servile attitude around people with money  对有钱人卑躬屈膝</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2057,66 +2077,58 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>severe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>shackle</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>vt. 束缚： to deprive of freedom especially of action by means of restrictions or handicaps
 v. 限制，阻碍： to create difficulty for the work or activity of</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unwilling to shackle the dogs to the wall of the house  不愿意把狗拴在墙边
 shackled by poverty and ignorance  被贫穷和无知所阻碍</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>shadow</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>vt. 偷偷尾随： to follow especially secretly: trail</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>shadowing the suspect to see what he was up to  尾随嫌犯行踪
 He had only a shadowy idea of what they wanted him to do.   他对要做的事只有一个模糊的想法。</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>shallow</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>adj. 浅显的，浅薄的： having or showing a lack of depth of understanding or character</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>shallow generalizations  一个浅显的概览</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2126,45 +2138,45 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>shallow</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>adj. 浅显的，浅薄的： having or showing a lack of depth of understanding or character</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>shallow generalizations  一个浅显的概览</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>sham</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>n. 欺瞒： the quality of deceitfulness; empty pretense
 v. 掩饰，假装： to present a false appearance of
 adj. 虚假的： not genuine; fake</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>condemned the rigged election as a total sham  指责这次有作弊的选举是彻头彻尾的骗局
 shammed a most unconvincing limp just to get sympathy  非常拙劣地假装自己腿脚不便，以博得同情
 street vendors selling sham designer handbags to gullible tourists  街头小贩向易上当的游客兜售山寨的设计师手包</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>shiftless</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2174,17 +2186,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>shipshape</t>
+          <t>shiftless</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
+          <t>adj. 胸无大志，懒惰的： lacking in ambition or incentive: lazy</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
+          <t>shiftless spongers who never thought to do anything for themselves  无志气的弃民们，从来没有想过改变自己</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2196,17 +2208,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>shirk</t>
+          <t>shipshape</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
+          <t>adj. 井然有序的： marked by meticulous order and neatness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>shirk one’s duty  逃避责任</t>
+          <t>I like to keep my car shipshape.   我喜欢打理我的车。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,17 +2230,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>shoal</t>
+          <t>shirk</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj. 浅的： having little depth ; shallow.</t>
+          <t>vi. 逃避，规避： to get or keep away from (as a responsibility) through cleverness or trickery</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>shoal waters of the bay  海湾附近的浅水区</t>
+          <t>shirk one’s duty  逃避责任</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2240,17 +2252,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>shopworn</t>
+          <t>shoal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
+          <t>adj. 浅的： having little depth ; shallow.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
+          <t>shoal waters of the bay  海湾附近的浅水区</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2262,17 +2274,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>shopworn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>n. 少量： a small amount; a particle</t>
+          <t>adj. 陈旧的： worn-out, as from overuse; trite</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
+          <t>the shopworn suggestion to job applicants to “just be yourself”老掉牙的让应征者“做你自己”的提议</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2284,117 +2296,117 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>shred</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>n. 少量： a small amount; a particle</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>He struggled to retain a shred of his dignity.   他勉强挽救了一点尊严。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>shrewd</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 精明的，机敏的： having or showing a practical cleverness or judgment
 adj. 刺骨的，强烈的： causing intense discomfort to one's skin</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>He's shrewd about his investments.   他是个精明的投资人。
 She pulled her coat tighter against the shrewd breeze whipping down the alley.  巷子里挂着刺骨的风，她拉紧了大衣。</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>shrink</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>v. 在数量或价值方面变低；减小： to become reduced in amount or value; dwindle:
 v. 本能性地退却（如因遇到使人惊恐的某物）；退缩： to draw back instinctively, as from somethingalarming; recoil
 v. 表示出不情愿；犹豫： to show reluctance; hesitate:</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>His savings quickly shrank.   他的存款急剧减少。
 shrinking back from the approaching flames  对着燃烧的火焰望而却步
 shrink from making such a sacrifice  对做出这样的牺牲犹豫不决</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>shroud</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 隐蔽物，可起隐藏、保护或屏护作用的某物： something that conceals, protects, or screens:
 v. 将…从视线中隔离，遮蔽： to shut off from sight; screen</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>under a shroud of fog  在迷雾的掩护下
 shrouded the fact that the child had been adopted  将孩子是领养的这个事实隐藏起来</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>shrug</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>v. 轻视，忽略： to dismiss as of little importance
 v. 脱下（衣物等）： to rid oneself of (a garment)</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>The administration was willing to shrug off the problem.   当局有意忽略这个问题。
 She shrugged off her coat and hung it up neatly.   她脱下了她的大衣，将其整齐地挂好。</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>shun</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2404,17 +2416,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sidestep</t>
+          <t>shun</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
+          <t>vt. 避开，避免： to avoid deliberately; keep away from</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
+          <t>After his divorce he found himself being shunned by many of his former friends.  自从他离婚以来，他发现许多曾经的朋友都刻意躲着他。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2426,17 +2438,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>sidestep</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
+          <t>vt. （通过逃避而）不遵守： to avoid having to comply with (something) especially through cleverness</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
+          <t>The eager enlistee sidestepped the regulations by lying about his age.  急切的应募者通过谎报自己的年龄躲过了规定的限制。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2448,17 +2460,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>simpleton</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
+          <t>adj. （在重要性、成就方面）非同寻常的： standing above others in rank, importance, or achievement</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
+          <t xml:space="preserve">The Louisiana Purchase is cited by many historians as one of the most signal events in American history.  </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2470,43 +2482,43 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>simpleton</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>n. （缺乏常识的）笨蛋： a person lacking in common sense; a stupid person</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>His silly antics at office parties have earned him a reputation as a simpleton.   他在办公室聚会上愚蠢的古怪行为让他被人认为是个蠢货。</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>simulate</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>v. 假装，模仿： to have or take on the appearance, form, or sound of; imitate
 v. 模拟： to create a representation or model of (a physical system or particular situation)</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>cosmetics that simulate a suntan  用来模仿晒黑效果的化妆品
 carrying out an experiment to simulate weightlessness  进行了模拟失重状态的实验</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2516,17 +2528,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sincere</t>
+          <t>sin</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
+          <t>n. 罪恶的事： an action that is or is felt to be highly reprehensible; morally unacceptable</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
+          <t>It's a sin to waste food when people are starving.   当有人还在挨饿时浪费食物是一种罪过。</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2538,17 +2550,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sinecure</t>
+          <t>sincere</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
+          <t>adj. 真诚的，不做作的： being without hypocrisy or pretense; true</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
+          <t>She offered a sincere apology for her angry outburst.   她为她先前的盛怒表示诚挚的歉意。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2560,17 +2572,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sinew</t>
+          <t>sinecure</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 活力，力量： vigorous strength; muscular power</t>
+          <t>n. 美差： an office or position that requires little or no work and that usually provides an income</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
+          <t>a lucrative sinecure in a big law firm  在大法律公司高报酬的美差</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2582,111 +2594,111 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>sinew</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>n. 活力，力量： vigorous strength; muscular power</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Money is the sinew of love as well as war.  爱情和战争都要用金钱来保证。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>singe</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>vt. 轻微烧焦： to burn superficially or lightly</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The iron is too hot, and you'll singe the nightdress.   熨斗太烫了，你会把睡衣烫坏的。
 The marshmallowsgot a bit singed over the campfire, but we like them that way.  棉花糖因为营火而有些许烧焦，但我们还是很喜欢它的味道。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>sinuous</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 蜿蜒的，迂回的： marked by a long series of irregular curves; not direct</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>The river flowed in a sinuous path through the lush valley.   蜿 蜒 曲 折 的 河 流 流 过 茂 密 的 山 谷 。
 Thirty-year-old men are novel, rich in content and sinuous in plots.   三十岁的男人是小说，内容丰富，情节曲折。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>sip</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vt. （尤指小口地）喝： to swallow in liquid form, especially in small quantities</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>slowly sipping the hot soup  慢慢地喝着热汤
 She sipped her coffee while she watched the sun rise.   她一边看着日出，一边喝着她的咖啡。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>skeleton</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 骨架，框架： something forming a structural framework</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Only the charred skeleton of the house remained after the fire.   大火过后整个房子只剩下被烧焦的骨架了。
 We saw a skeleton of the report before it was published.   在报告发表之前，我们看到了他的整体框架。</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>skeptic</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>n. 怀疑者： one who instinctively or habitually doubts, questions, or disagrees with assertions orgenerally accepted conclusions</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>You can either be a skeptic or not, but I believe it anyway.   至于你信不信，我反正信了。</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2696,43 +2708,43 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>skeptic</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>n. 怀疑者： one who instinctively or habitually doubts, questions, or disagrees with assertions orgenerally accepted conclusions</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>You can either be a skeptic or not, but I believe it anyway.   至于你信不信，我反正信了。</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>skimp</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 缺乏的，不足的： less plentiful than what is normal, necessary, or desirable
 vi. 节省花费，吝啬： to give insufficient or barely sufficient attention or effort to or funds for</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>The dieter complained about skimp meals that were served at the fat farm.  这个节食者抱怨说减肥疗养地的伙食少得可怜。
 We must skimp and save if we are going to afford a vacation this summer.  要是我们这个夏天要出去旅行，那么就得开始节省出一些钱了。</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>skirmish</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>n. 小冲突，争论： a minor or preliminary conflict or dispute</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>They had a skirmish over the rules before the debate began.  在辩论开始之前他们就规则而吵了起来。</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2742,66 +2754,66 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>skirmish</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>n. 小冲突，争论： a minor or preliminary conflict or dispute</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>They had a skirmish over the rules before the debate began.  在辩论开始之前他们就规则而吵了起来。</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>skirt</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>n. 界限，边界： the line or relatively narrow space that marks the outer limit of something
 vt. 绕行，避开： to go around or keep away from in order to avoid danger or discovery</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>an old shack on the skirts of the town  城镇边界上的一座老房子</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>slack</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 松弛的： not tightly fastened, tied, or stretched
 adj. 疏忽的，大意的： failing to give proper care and attention</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>The rope is too slack.   绳子太松了。
 This building contractor is known mainly for his firm's slack workmanship and slipshod construction.   这个建筑承包商因其手下公司不负责任的粗糙做工和马虎建造的建筑物而闻名。</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>slake</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>vt. 使满足： to satisfy (a craving); quench</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Mountain climbing has largely slaked my desire for adventure.   登山很大程度上满足了我对探险的渴望。</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2811,45 +2823,45 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>slake</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>vt. 使满足： to satisfy (a craving); quench</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mountain climbing has largely slaked my desire for adventure.   登山很大程度上满足了我对探险的渴望。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>slant</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. （看待问题、思考的）角度，看法： a way of looking at or thinking about something
 adj. 倾斜的： running in a slanting direction
 vt. 歪曲（事实等）： to change so much as to create a wrong impression or alter the meaning of</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>an interesting slant on the problem of underage drinking  在青少年饮酒这个问题上一个有趣的视角
 The computer keyboard has a slightly slant surface so that typing is more comfortable for the wrists.   电脑键盘有一个微小的倾斜角，因此打字不会使手腕感到不适。
 Reporters slanted the truth in order to push a political agenda.   为了推动政治进程，记者们歪曲了事实。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>slate</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>vt. 列入名单，计划，安排： to put (someone or something) on a list</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>You've been slated for a three o'clock interview.  你的面试被安排在三点。</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2859,17 +2871,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>slew</t>
+          <t>slate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 大量，许多： a large amount or number</t>
+          <t>vt. 列入名单，计划，安排： to put (someone or something) on a list</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>donate a slew of books to the university library  向大学图书馆捐赠了大量的书籍</t>
+          <t>You've been slated for a three o'clock interview.  你的面试被安排在三点。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2881,10 +2893,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>slew</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>n. 大量，许多： a large amount or number</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>donate a slew of books to the university library  向大学图书馆捐赠了大量的书籍</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>slight</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 不重要的： deficient in weight, importance
 adj. 轻微的： small in degree
@@ -2892,7 +2926,7 @@
 vt. 忽略，疏忽： to fail to give proper attention to</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a slight comedy that did nothing to further her career  一个并没有帮助她事业发展的小喜剧
 only a slight chance of success  只有很小的成功概率
@@ -2901,28 +2935,6 @@
 She slighted several major authors in her survey of 20th-century fiction.   她在调查 20 世纪幻想文学时中忽略了几个重要的作家。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>sling</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>vi. 投掷： to send through the air especially with a quick forward motion of the arm</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>slinging stones at the checkpoint  朝着检查站扔石头</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2932,89 +2944,89 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>sling</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>vi. 投掷： to send through the air especially with a quick forward motion of the arm</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>slinging stones at the checkpoint  朝着检查站扔石头</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>slippery</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 光滑的： causing or tending to cause something to slide or fall
 adj. 隐秘的： given to acting in secret and to concealing one's intentions</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>The road is slippery after rain, so drive cautiously.   雨后路滑，谨慎驾驶。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>slipshod</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>adj. 粗心的，随意的： marked by carelessness or indifference to exactness, precision, andaccuracy</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>a slipshod piece of research  一项随意的研究
 The hotel had always been run in a slipshod way.   酒 店 总是在以一种随意的状态运营。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>sloppy</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person
 adj. 混乱的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>a sloppy child who always seems to have spilled something on his clothes  一个外表邋遢的小孩子，他的衣服似乎总被沾上了什么东西
 dumped the papers in a sloppy pile on the desk  把纸张随意地叠放在书桌上</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>sloth</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>n. 怠惰，懒惰： disinclination to action or labor: indolence</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Sloth is the mother of poverty.   懒惰是贫穷的原因。</t>
-        </is>
-      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3024,43 +3036,43 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>sloth</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>n. 怠惰，懒惰： disinclination to action or labor: indolence</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sloth is the mother of poverty.   懒惰是贫穷的原因。</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>slouch</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 懒人： a lazy person
 vt. 缓慢行走： to go or move slowly or reluctantly</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>is no slouch when it comes to cooking  做起饭来可一点也不懒
 He slouched towards the church as if going to his own funeral.   他缓缓地向教堂走去，仿佛是要去参加自己的葬礼一般。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>slovenly</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>For the sake of their image, the band members transformed themselves from clean-cut lads to slovenlyrockers.   为了他们自身的形象，乐队成员从健康向上的青年变成了邋遢的摇滚乐手。</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3070,17 +3082,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sluggard</t>
+          <t>slovenly</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n. 懒人： an habitually lazy person</t>
+          <t>adj. 邋遢的，不整洁的： lacking neatness in dress or person</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>The teacher tried to wake up the sluggards who were still sleeping at that late hour.  老 师 尝 试 去 叫 醒那些还在睡觉的懒鬼们。</t>
+          <t>For the sake of their image, the band members transformed themselves from clean-cut lads to slovenlyrockers.   为了他们自身的形象，乐队成员从健康向上的青年变成了邋遢的摇滚乐手。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3092,43 +3104,43 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>sluggard</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>n. 懒人： an habitually lazy person</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The teacher tried to wake up the sluggards who were still sleeping at that late hour.  老 师 尝 试 去 叫 醒那些还在睡觉的懒鬼们。</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>sluggish</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 缓慢的，迟缓的： markedly slow in movement, flow, or growth
 adj. 迟钝的，反应慢的： slow to respond (as to stimulation or treatment)</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>The sluggish pace of the project is worrisome.   项目进展缓慢让人担忧。
 Reptiles are naturally sluggish at low temperatures.  在低温下爬行动物的生理机能自然会趋于迟缓。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>slumber</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>vt. 睡着： to be in a state of sleep</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>She slumbered for hours while the train rolled on.   她在火车行进过程中睡了四个小时。</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3138,17 +3150,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>slur</t>
+          <t>slumber</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n. 耻辱： a mark of guilt or disgrace</t>
+          <t>vt. 睡着： to be in a state of sleep</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。</t>
+          <t>She slumbered for hours while the train rolled on.   她在火车行进过程中睡了四个小时。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3160,43 +3172,43 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>slur</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>n. 耻辱： a mark of guilt or disgrace</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Your drunken behavior at the wedding has cast a slur on this family.   你在婚礼上醉酒后的行为给整个家族都带来了耻辱。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>sly</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>adj. 狡猾的： clever or cunning, especially in the practice of deceit.
 adj. 隐秘的，偷偷的： given to acting in secret and to concealing one's intentions</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>The movie pairs a sly, dissembling ex-con with an upstanding, straight-arrow cop.   电影把一个狡猾、善于骗人的出狱犯和正直、坦率的警察搭配在了一起。
 took a sly look at the letter on the table  偷偷地看了一眼桌上的信</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>smarmy</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>adj. 虚情假意的，过分恭维的： hypocritically, complacently, or effusively earnest</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>He is slightly smarmy and eager to impress.   他有点虚伪，急于给人留下印象。</t>
-        </is>
-      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3206,17 +3218,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smarmy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 反应敏捷的，聪颖的： characterized by sharp quick thought</t>
+          <t>adj. 虚情假意的，过分恭维的： hypocritically, complacently, or effusively earnest</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>a smart child who could do well in school  一个能在学校取得良好成绩的聪明孩子</t>
+          <t>He is slightly smarmy and eager to impress.   他有点虚伪，急于给人留下印象。</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3228,43 +3240,43 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>smart</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>adj. 反应敏捷的，聪颖的： characterized by sharp quick thought</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>a smart child who could do well in school  一个能在学校取得良好成绩的聪明孩子</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>smattering</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 浅薄的知识： superficialor piecemeal knowledge
 n. 少量： a small scattered number or amount</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>a smattering of Greek grammar  略懂希腊语语法
 Only a smattering of spectators presented.  只有少数几个观看者出席了。</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>smirk</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>vi. （自鸣得意地）笑： to smile in an affected, often offensively self-satisfied manner</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>She tried not to smirk when they announced the winner.  当他们宣布她获得了胜利时，她尽可能地保持不露出笑容。</t>
-        </is>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3274,65 +3286,65 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>smirk</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>vi. （自鸣得意地）笑： to smile in an affected, often offensively self-satisfied manner</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>She tried not to smirk when they announced the winner.  当他们宣布她获得了胜利时，她尽可能地保持不露出笑容。</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>smother</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 使窒息： to be or cause to be killed by lack of breathable air
 vt. 抑制（表达、说出），压制： to refrain from openly showing or uttering</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Children should never be leftin cars alone because they could become trapped and smothered.   小 孩 子不应该被单独留在车中，因为他们很容易因而被困并且窒息死亡。
 He quickly smothered his inappropriate laughter at the funeral ceremony.   他很快就控制住了自己在葬礼上不适当的笑声。
 Management smothered the true facts of the case.   管理层隐瞒了案件的真相。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>smug</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>adj. 自大的，自鸣得意的： having too high an opinion of oneself
 adj. 整洁的，有序的： being clean and in good order</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>The winner was so smug that he lost the support of the crowd.   胜利者过于自大，以至于失去了群众的支持。</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>smuggling</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>n. 走私，私运： secret importation or exportation contrary to the law and especially without payingduties imposed by law</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>He was arrested for smuggling drugs into the country.   他因为向境内走私毒品而被逮捕。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3344,16 +3356,38 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>smuggling</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>n. 走私，私运： secret importation or exportation contrary to the law and especially without payingduties imposed by law</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>He was arrested for smuggling drugs into the country.   他因为向境内走私毒品而被逮捕。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>snare</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. 无法逃脱的困境： something that catches and holds
 vt. 捕捉： to capture by or as if by use of a snare</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Someday you'll find that your lies are a snare from which you can't escape.  总有一天你会发现，你所说过的谎话都会变成你无法逃脱的困境。
 caught in the snare of drug addiction  处于吸毒上瘾的困境之中
@@ -3361,53 +3395,31 @@
 The car salesmansuccessfully snared three potential customers.  汽车销售员成功地让三个潜在的客户上钩了。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>snarl</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>v. 纠缠，纠结： to twist together into a usually confused mass
 vi. 咆哮，怒吼： to give vent to anger in surly language</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>You'll be awfully sorry if you snarl your fishing line.   要是你把渔网给缠在一起，你肯定会非常后悔的。
 Thenew regulation has succeeded in nothing but snarling up rush-hour traffic throughout the city.   新 的 政 策 只 将 全城高峰时期的交通变得更为复杂难解。
 She snarled at me after I kept badgering her with questions.   在我不断用问题骚扰她之后，她终于忍不住爆发了。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>sneer</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>vt. （轻蔑地）嘲笑： to speak in a scornful, contemptuous, or derisive manner</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>They would invariably sneer every time they passed the hapless nerds.   每次经过那个不幸的书呆子身边时，他们总是会报以不变的嘲笑。</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3417,17 +3429,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>snobbish</t>
+          <t>sneer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 谄上傲下的，自大的： being or characteristic of a person who has an offensive air of superiorityand tends to ignore or disdain anyone regarded as inferior</t>
+          <t>vt. （轻蔑地）嘲笑： to speak in a scornful, contemptuous, or derisive manner</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常</t>
+          <t>They would invariably sneer every time they passed the hapless nerds.   每次经过那个不幸的书呆子身边时，他们总是会报以不变的嘲笑。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3439,17 +3451,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>snub</t>
+          <t>snobbish</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>v. 轻视，不理睬： to treat with contempt or neglect</t>
+          <t>adj. 谄上傲下的，自大的： being or characteristic of a person who has an offensive air of superiorityand tends to ignore or disdain anyone regarded as inferior</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>The snob in town always snubbed anyone she thought was beneath her.   镇上那个自命不凡的人总是对那些她认为不如她的人不屑一顾。</t>
+          <t>I expected her to be snobbish but she was warm and friendly.  我本以为她会是个自大的人，结果她非常</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3461,40 +3473,62 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>snub</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>v. 轻视，不理睬： to treat with contempt or neglect</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>The snob in town always snubbed anyone she thought was beneath her.   镇上那个自命不凡的人总是对那些她认为不如她的人不屑一顾。</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>soak</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>vt. 使…湿透： to make thoroughly wet or saturated by or as if by placing in liquid</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>That downpour soaked my hair, and now I look like a sight.   那场大雨把我的头发淋湿了，所以我现在看起来格外滑稽。
 We ran for home as soon as the rain started, but our clothes still ended up soaked.   我 们 一 发 觉下雨就开始往家里跑，但我们的衣服还是湿透了。</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>sober</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 严肃的： marked by seriousness, gravity, or solemnity of conduct or character
 adj. 节制的： given to or marked by restraint in the satisfaction of one's appetites
 adj. 有理有据的： based on sound reasoning or information</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>She made a sober reply to what was only a teasing comment.   她很严肃地回复了那个恶搞的评论。
 Illness is a sober reminder of our mortality.  疾病是死亡给我们发出的严肃警告。
@@ -3502,172 +3536,150 @@
 a sober assessment of the situation  关于局势有理有据的分析</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>sodden</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adj. 湿透的： containing, covered with, or thoroughly penetrated by water
 vt. 使…湿透： to wet thoroughly with liquid</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>We stripped off our sodden clothes and wrung them dry.  我们脱下湿透了的衣服并将它们拧干。
 Soldiers' boots were soddened by endless hours in muddy trenches.   长时间身处泥泞的战壕使得士兵的靴子湿透了。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>solace</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>n. 安慰： comfort in sorrow, misfortune, or distress
 vt. 安慰，安抚： to comfort, cheer, or console, as in trouble or sorrow</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>The kind words brought a little solace to the grieving widow.   这些同情的话语给痛苦的寡妇带来了些许安慰。
 I did their my to solace those bereaved children.   我尽力去安抚那些失去双亲的孩子们。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>solder</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>v. 连接，联合： to join or unite</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Wires are soldered onto the circuit board.   电线被焊接在电路板上。
 The agreement soldered the factionsinto an alliance.   两个派系因这份协议而结成同盟。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>solemnity</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. 严肃： the quality or condition of being solemn</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solemnity is a trick of the body to hide the fault of the mind.   一本正经的态度，是肉体为了掩饰精神上的缺陷而耍的花招。
 The coronation ceremony requires absolute solemnity.  加冕典礼需要绝对的庄严肃穆。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>solicitous</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 为他人操心的，体谅他人的： given to or made with heedful anticipation of the needs andhappiness of others
 adj. 迫切的，渴望的： showing urgent desire or interest</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">The solicitous husband had already cleaned the house and cooked dinner by the time his wife returnedhome from work.   这个十分体谅妻子的好丈夫在他妻子回家之前就把家里清理干净，还把晚餐都做好了。
 The family is solicitous to put this whole unfortunate affair behind them and to move on with their lives.  </t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>solid</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>adj. 固态的，坚固的： having a consistency that does not easily yield to pressure
 adj. 有理有据的： based on sound reasoning or information
 adj. 坚定的，不迟疑的： not showing weakness or uncertainty</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>The ice cream is too solid to scoop right now.   冰淇淋现在太硬了，根本舀不动。
 the only solid conclusion that the jury could have reached  陪审团唯一可能做出的合理结论
 Some people see a solid handshake as a sign of strong character.   有人认为握手毫不迟疑的人有着很强势的性格。</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>soliloquy</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>n. （尤指自言自语的）独白： a dramatic or literary form of discourse in which a character talks to himselfor herself or reveals his or her thoughts without addressing a listener</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>A soliloquy always reveals the character’s thoughts and feeling.   一段独白经常反映出人物的思想和感情。</t>
-        </is>
-      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3677,66 +3689,66 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>soliloquy</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>n. （尤指自言自语的）独白： a dramatic or literary form of discourse in which a character talks to himselfor herself or reveals his or her thoughts without addressing a listener</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A soliloquy always reveals the character’s thoughts and feeling.   一段独白经常反映出人物的思想和感情。</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>solitude</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 孤独，避世： the quality or state of being alone or remote from society</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>He sought the kind of solitude where his thoughts would be his only companions.   他在寻找一种孤独感，只有他的思想陪伴着他。
 She wished to work on her novel in solitude.   她想一个人安静地完成小说。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>solvent</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>adj. 有偿付能力的： able to pay all legal debts
 n. 溶剂： a substance in which another substance is dissolved, forming a solution</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">They're going to have to prove that the company is now solvent.   接下来他们必须要证明公司的偿贷能力。
 Some organic solvents, such as benzene, pyridine, furan, are poisonous to human’s reproductive system.  </t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>somatic</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>adj. 肉体的： of the body, especially as distinguished from a body part, the mind, or the environment</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>a somatic disorder that was once thought to be “all in the patient’s head” 曾被认为“全是病人头脑中的问题”的生理机能紊乱</t>
-        </is>
-      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3746,17 +3758,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>somber</t>
+          <t>somatic</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 昏暗的，无光的： so shaded as to be dark and gloomy</t>
+          <t>adj. 肉体的： of the body, especially as distinguished from a body part, the mind, or the environment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">The prison's somber interrogation room has the desired effect of striking fear and despair into the prisoner.  </t>
+          <t>a somatic disorder that was once thought to be “all in the patient’s head” 曾被认为“全是病人头脑中的问题”的生理机能紊乱</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3768,17 +3780,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>somnolence</t>
+          <t>somber</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 瞌睡，嗜睡： the quality or state of desiring or needing sleep</t>
+          <t>adj. 昏暗的，无光的： so shaded as to be dark and gloomy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Somnolence is likely to be the most typical reaction to this novel.  读这部小说最典型的感受就是想睡觉。</t>
+          <t xml:space="preserve">The prison's somber interrogation room has the desired effect of striking fear and despair into the prisoner.  </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3790,17 +3802,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sonnet</t>
+          <t>somnolence</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 十四行诗： a 14-line verse form usually having one of several conventional rhyme schemes</t>
+          <t>n. 瞌睡，嗜睡： the quality or state of desiring or needing sleep</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a sonnet that celebrates love  一首歌颂爱情的十四行诗</t>
+          <t>Somnolence is likely to be the most typical reaction to this novel.  读这部小说最典型的感受就是想睡觉。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3812,69 +3824,69 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>sonnet</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>n. 十四行诗： a 14-line verse form usually having one of several conventional rhyme schemes</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>a sonnet that celebrates love  一首歌颂爱情的十四行诗</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>soothe</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>vt. 带来慰藉，安慰： to bring comfort, solace, or reassurance to
 vt. 使镇静，使安心： to free from distress or disturbance</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>There seemed to be no words sufficient to soothethe widow.  任何话语好像都不足以安慰这个寡妇。
 He took her in his arms and soothed her.   他把她抱在怀中以让她镇静下来。</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>sop</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>n. 安慰物： something yielded to placate or soothe
 n. 贿赂，回扣： something given or promised in order to improperly influence a person's conductor decision
 vt. 浸湿，湿透： to wet thoroughly</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>to provide with the salary raise as a sop  提高工资作为安慰
 As a sop to the teachers' union for supporting his reelection campaign, the mayor promised to push for theabolition of the residency requirement.   市长答应推动废除获得绿卡的限制条件，以此作为换取选举中教师联盟支持的条件。
 My book fell in the swimming pool and was thoroughly sopped before I could fish it out.   我 的 书 掉 进 了 游泳池，在我把它捞出来之前已经彻底湿透了。</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>sophism</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>n. 假推理，诡辩： deceptive or fallacious argumentation</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Political selection is more dependent on sophism and less on economic literacy.   政治选举更多的是依靠诡辩，而非简练的文笔。</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3884,22 +3896,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>sophism</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 假推理，诡辩： deceptive or fallacious argumentation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Political selection is more dependent on sophism and less on economic literacy.   政治选举更多的是依靠诡辩，而非简练的文笔。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>sophisticated</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 精明的，老于世故的： having acquired worldly knowledge or refinement; lacking naturalsimplicity or naiveté
 adj. 复杂的： very complex or complicated</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>On the train I met a surprisingly sophisticated and widely traveled child.   在火车上我见到了一个老练得让人惊讶的、见多识广的孩子。
 a very sophisticated machine that is a marvel of modern design  一个十分复杂的机器，是现代设计的最高成就</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
